--- a/primar.xlsx
+++ b/primar.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafa/Documents/SocialRobotUpdate/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD0D4A-E19F-8644-9BFC-D581AFD2FCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1400" yWindow="1620" windowWidth="21520" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -256,8 +262,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +339,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,9 +425,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,6 +477,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -620,14 +670,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -706,7 +761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>208</v>
       </c>
@@ -741,7 +796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43</v>
       </c>
@@ -773,7 +828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>172</v>
       </c>
@@ -811,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>213</v>
       </c>
@@ -840,7 +895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>52</v>
       </c>
@@ -869,7 +924,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>67</v>
       </c>
@@ -901,7 +956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>206</v>
       </c>
@@ -933,7 +988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>57</v>
       </c>
@@ -962,7 +1017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -993,16 +1048,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/primar.xlsx
+++ b/primar.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wafa/Documents/SocialRobotUpdate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD0D4A-E19F-8644-9BFC-D581AFD2FCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{82BD0D4A-E19F-8644-9BFC-D581AFD2FCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1369347-E243-4318-AFBD-97E8EDC635DD}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1620" windowWidth="21520" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,203 +77,203 @@
     <t>10.1007/s12369-014-0227-1</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.1007/s12369-014-0227-1</t>
+  </si>
+  <si>
+    <t>International Journal of Social Robotics</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2014, 3, 23]]}</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2014, 8]]}</t>
+  </si>
+  <si>
+    <t>Springer Science and Business Media LLC</t>
+  </si>
+  <si>
+    <t>[{'issue': '2', 'key': '227_CR1', 'first-page': '33', 'volume': '1', 'author': 'T Belpaeme', 'year': '2012', 'unstructured': 'Belpaeme T, Baxter PE, Read R, Wood R, Cuayáhuitl H, Kiefer B, Racioppa S, Kruijff-Korbayová I, Athanasopoulos G, Enescu V et al (2012) Multimodal child-robot interaction: building social bonds. J Hum–Robot Interact 1(2):33–53', 'journal-title': 'J Hum–Robot Interact'}, {'issue': '2', 'key': '227_CR2', 'doi-asserted-by': 'crossref', 'first-page': '327', 'DOI': '10.1145/1067860.1067867', 'volume': '12', 'author': 'T Bickmore', 'year': '2005', 'unstructured': 'Bickmore T, Picard R (2005) Establishing and maintaining long-term human–computer relationships. ACM Trans Comput–Hum Interact 12(2):327', 'journal-title': 'ACM Trans Comput–Hum Interact'}, {'issue': '6', 'key': '227_CR3', 'doi-asserted-by': 'crossref', 'first-page': '648', 'DOI': '10.1080/08839514.2010.492259', 'volume': '24', 'author': 'T Bickmore', 'year': '2010', 'unstructured': 'Bickmore T, Schulman D, Yin L (2010) Maintaining engagement in long-term interventions with relational agents. Appl Artif Intell 24(6):648–666', 'journal-title': 'Appl Artif Intell'}, {'key': '227_CR4', 'unstructured': 'Biocca F (1997) The cyborg’s dilemma: Embodiment in virtual environments. In: Cognitive Technology, 1997’.Humanizing the Information Age’. Proceedings., Second International Conference on, IEEE. pp. 12–26', 'DOI': '10.1109/CT.1997.617676', 'doi-asserted-by': 'crossref'}, {'issue': '1535', 'key': '227_CR5', 'doi-asserted-by': 'crossref', 'first-page': '3527', 'DOI': '10.1098/rstb.2009.0157', 'volume': '364', 'author': 'C Breazeal', 'year': '2009', 'unstructured': 'Breazeal C (2009) Role of expressive behaviour for robots that learn from people. Philos Trans R Soc B 364(1535):3527–3538', 'journal-title': 'Philos Trans R Soc B'}, {'key': '227_CR6', 'unstructured': 'Castellano G, Leite I, Pereira A, Martinho C, Paiva A, McOwan PW (2013) Multimodal affect modeling and recognition for empathic robot companions. Int J Hum Robotics 10(1)', 'DOI': '10.1142/S0219843613500102', 'doi-asserted-by': 'crossref'}, {'issue': '3', 'key': '227_CR7', 'doi-asserted-by': 'crossref', 'first-page': '403', 'DOI': '10.1037/0033-2909.113.3.403', 'volume': '113', 'author': 'S Ceci', 'year': '1993', 'unstructured': 'Ceci S, Bruck M (1993) Suggestibility of the child witness: a historical review and synthesis. Psychol bull 113(3):403', 'journal-title': 'Psychol bull'}, {'issue': '3', 'key': '227_CR8', 'doi-asserted-by': 'crossref', 'first-page': '271', 'DOI': '10.1207/s15327809jls0603_1', 'volume': '6', 'author': 'M Chi', 'year': '1997', 'unstructured': 'Chi M (1997) Quantifying qualitative analyses of verbal data: a practical guide. J Learn Sci 6(3):271–315', 'journal-title': 'J Learn Sci'}, {'key': '227_CR9', 'unstructured': 'Cramer H, Goddijn J, Wielinga B, Evers V (2010) Effects of (in)accurate empathy and situational valence on attitudes towards robots. ACM/IEEE international conference on human–robot interaction, ACM, pp 141–142'}, {'key': '227_CR10', 'unstructured': 'Cutrona C, Suhr J, MacFarlane R (1990) Interpersonal transactions and the psychological sense of support. Personal relationships and social support pp. 30–45'}, {'key': '227_CR11', 'doi-asserted-by': 'crossref', 'first-page': '131', 'DOI': '10.1007/BF00991640', 'volume': '14', 'author': 'N Eisenberg', 'year': '1990', 'unstructured': 'Eisenberg N, Fabes RA (1990) Empathy: conceptualization, measurement, and relation to prosocial behavior. Motiv Emot 14:131–149', 'journal-title': 'Motiv Emot'}, {'issue': '5', 'key': '227_CR12', 'doi-asserted-by': 'crossref', 'first-page': '551', 'DOI': '10.1006/ijhc.1996.0104', 'volume': '46', 'author': 'B Fogg', 'year': '1997', 'unstructured': 'Fogg B, Nass C (1997) Silicon sycophants: the effects of computers that flatter. J Hum–Comput Stud 46(5):551–561', 'journal-title': 'J Hum–Comput Stud'}, {'key': '227_CR13', 'unstructured': 'Gonsior B, Sosnowski S, Mayer C, Blume J, Radig B, Wollherr D, Kuhnlenz K (2011) Improving aspects of empathy and subjective performance for hri through mirroring facial expressions. In: RO-MAN, 2011 IEEE, pp. 350–356. doi: 10.1109/ROMAN.2011.6005294', 'DOI': '10.1109/ROMAN.2011.6005294', 'doi-asserted-by': 'crossref'}, {'key': '227_CR14', 'unstructured': 'Gordon A (2011) Assessing social support in children: development and initial validation of the social support questionnaire for children. Ph.D. Thesis, University of Houston'}, {'issue': '14', 'key': '227_CR15', 'doi-asserted-by': 'crossref', 'first-page': '1909', 'DOI': '10.1163/016918609X12518783330289', 'volume': '23', 'author': 'M Heerink', 'year': '2009', 'unstructured': 'Heerink M, Kröse BJA, Evers V, Wielinga BJ (2009) Influence of social presence on acceptance of an assistive social robot and screen agent by elderly users. Adv Robotics 23(14):1909–1923', 'journal-title': 'Adv Robotics'}, {'issue': '2', 'key': '227_CR16', 'doi-asserted-by': 'crossref', 'first-page': '262', 'DOI': '10.1162/pres.1992.1.2.262', 'volume': '1', 'author': 'C Heeter', 'year': '1992', 'unstructured': 'Heeter C (1992) Being there: the subjective experience of presence. Presence 1(2):262–271', 'journal-title': 'Presence'}, {'key': '227_CR17', 'author': 'M Hoffman', 'year': '2001', 'unstructured': 'Hoffman M (2001) Empathy and moral development: Implications for caring and justice. Cambridge University Press, Cambridge', 'volume-title': 'Empathy and moral development: Implications for caring and justice'}, {'issue': '3', 'key': '227_CR18', 'doi-asserted-by': 'crossref', 'first-page': '405', 'DOI': '10.1075/is.7.3.13kah', 'volume': '7', 'author': 'PH Kahn Jr', 'year': '2006', 'unstructured': 'Kahn PH Jr, Friedman B, Perez-Granados DR, Freier NG (2006) Robotic pets in the lives of preschool children. Interact Stud 7(3):405–436', 'journal-title': 'Interact Stud'}, {'issue': '1', 'key': '227_CR19', 'doi-asserted-by': 'crossref', 'first-page': '61', 'DOI': '10.1207/s15327051hci1901&amp;2_4', 'volume': '19', 'author': 'T Kanda', 'year': '2004', 'unstructured': 'Kanda T, Hirano T, Eaton D, Ishiguro H (2004) Interactive robots as social partners and peer tutors for children: a field trial. Hum–Comput Interact 19(1):61–84', 'journal-title': 'Hum–Comput Interact'}, {'issue': '5', 'key': '227_CR20', 'doi-asserted-by': 'crossref', 'first-page': '962', 'DOI': '10.1109/TRO.2007.904904', 'volume': '23', 'author': 'T Kanda', 'year': '2007', 'unstructured': 'Kanda T, Sato R, Saiwaki N, Ishiguro H (2007) A 2-month field trial in an elementary school for long-term human–robot interaction. IEEE Trans Robotics 23(5):962–971', 'journal-title': 'IEEE Trans Robotics'}, {'key': '227_CR21', 'doi-asserted-by': 'crossref', 'first-page': '3', 'DOI': '10.1007/s12369-008-0009-8', 'volume': '1', 'author': 'H Kozima', 'year': '2009', 'unstructured': 'Kozima H, Michalowski M, Nakagawa C (2009) A playful robot for research, therapy, and entertainment. Int J Soc Robot 1:3–18', 'journal-title': 'Int J Soc Robot'}, {'issue': '1', 'key': '227_CR22', 'doi-asserted-by': 'crossref', 'first-page': '31', 'DOI': '10.1207/S1532785XMEP0701_2', 'volume': '7', 'author': 'K Lee', 'year': '2005', 'unstructured': 'Lee K, Nass C (2005) Social-psychological origins of feelings of presence: creating social presence with machine-generated voices. Media Psychol 7(1):31–45', 'journal-title': 'Media Psychol'}, {'key': '227_CR23', 'unstructured': 'Leite I, Castellano G, Pereira A, Martinho C, Paiva A (2012) Modelling empathic behaviour in a robotic game companion for children: an ethnographic study in real-world settings. In: Proceedings of the seventh annual ACM/IEEE international conference on human–robot interaction, HRI ’12, pp. 367–374. ACM, New York, NY, USA. doi: 10.1145/2157689.2157811 . http://doi.acm.org/10.1145/2157689.2157811', 'DOI': '10.1145/2157689.2157811', 'doi-asserted-by': 'crossref'}, {'key': '227_CR24', 'unstructured': 'Leite I, Martinho C, Paiva A (2013) Social robots for long-term interaction: a survey. Int J Social Robotics 5(2):291–308. doi: 10.1007/s12369-013-0178-y . http://dx.doi.org/10.1007/s12369-013-0178-y', 'DOI': '10.1007/s12369-013-0178-y', 'doi-asserted-by': 'crossref'}, {'key': '227_CR25', 'unstructured': 'Leite I, Martinho C, Pereira A, Paiva A (2009) As time goes by: long-term evaluation of social presence in robotic companions. In: Robot and human interactive communication, 2009. RO-MAN 2009, IEEE. pp. 669–674', 'DOI': '10.1109/ROMAN.2009.5326256', 'doi-asserted-by': 'crossref'}, {'key': '227_CR26', 'unstructured': 'Leite I, Martinho C, Pereira A, Paiva A (2009) As time goes by: Long-term evaluation of social presence in robotic companions. In: Robot and human interactive communication, 2009. RO-MAN 2009. The 18th IEEE international symposium on, pp. 669–674. doi: 10.1109/ROMAN.2009.5326256', 'DOI': '10.1109/ROMAN.2009.5326256', 'doi-asserted-by': 'crossref'}, {'key': '227_CR27', 'unstructured': 'Leite I, Pereira A, Castellano G, Mascarenhas S, Martinho C, Paiva A (2011) Modelling empathy in social robotic companions. In: L. Ardissono, T. Kuflik (eds.) UMAP Workshops, Lecture Notes in Computer Science, Springer, vol. 7138, pp. 135–147'}, {'key': '227_CR28', 'unstructured': 'Leite I, Pereira A, Martinho C, Paiva A (2008) Are emotional robots more fun to play with? Robot Hum Interact Commun 2008: 77–82', 'DOI': '10.1109/ROMAN.2008.4600646', 'doi-asserted-by': 'crossref'}, {'issue': '3', 'key': '227_CR29', 'doi-asserted-by': 'crossref', 'first-page': '250', 'DOI': '10.1016/j.ijhcs.2012.09.005', 'volume': '71', 'author': 'I Leite', 'year': '2013', 'unstructured': 'Leite I, Pereira A, Mascarenhas S, Martinho C, Prada R, Paiva A (2013) The influence of empathy in humanrobot relations. Int J Hum–Comput Stud 71(3):250–260. doi: 10.1016/j.ijhcs.2012.09.005', 'journal-title': 'Int J Hum–Comput Stud'}, {'key': '227_CR30', 'unstructured': 'Martinho C, Paiva A (2006) Using anticipation to create believable behaviour. In: Proceedings of the 21st national conference on Artificial intelligence - Volume 1, pp. 175–180. AAAI Press'}, {'issue': '1', 'key': '227_CR31', 'doi-asserted-by': 'crossref', 'first-page': '130', 'DOI': '10.1037/h0087080', 'volume': '31', 'author': 'MJ Mendelson', 'year': '1999', 'unstructured': 'Mendelson MJ, Aboud FE (1999) Measuring friendship quality in late adolescents and young adults: Mcgill friendship questionnaires. Canad J Behav Sci 31(1):130–132. doi: 10.1037/h0087080', 'journal-title': 'Canad J Behav Sci'}, {'key': '227_CR32', 'unstructured': 'Read JC, MacFarlane S (2006) Using the fun toolkit and other survey methods to gather opinions in child computer interaction. In: Proceedings of the 2006 conference on Interaction design and children, IDC ’06, pp. 81–88. ACM, New York, NY, USA. doi: 10.1145/1139073.1139096', 'DOI': '10.1145/1139073.1139096', 'doi-asserted-by': 'crossref'}, {'issue': '1–2', 'key': '227_CR33', 'doi-asserted-by': 'crossref', 'first-page': '99', 'DOI': '10.1007/s12193-009-0028-2', 'volume': '3', 'author': 'LD Riek', 'year': '2010', 'unstructured': 'Riek LD, Paul PC, Robinson P (2010) When my robot smiles at me: enabling human–robot rapport via real-time head gesture mimicry. J Multimodal User Interfaces 3(1–2):99–108', 'journal-title': 'J Multimodal User Interfaces'}, {'key': '227_CR34', 'unstructured': 'Saerbeck M, Schut T, Bartneck C, Janse M (2010) Expressive robots in education: varying the degree of social supportive behavior of a robotic tutor. In: Proceedings of CHI 2010, ACM. pp. 1613–1622', 'DOI': '10.1145/1753326.1753567', 'doi-asserted-by': 'crossref'}, {'key': '227_CR35', 'unstructured': 'Scherer K (2000) Psychological models of emotion. The neuropsychology of emotion'}, {'key': '227_CR36', 'unstructured': 'Schermerhorn P, Scheutz M, Crowell C (2008), Robot social presence and gender: Do females view robots differently than males? In: Proceedings of the 3rd ACM/IEEE international conference on human–robot, interaction, pp. 263–270. ACM', 'DOI': '10.1145/1349822.1349857', 'doi-asserted-by': 'crossref'}, {'issue': '5', 'key': '227_CR37', 'doi-asserted-by': 'crossref', 'first-page': '843', 'DOI': '10.1016/S0191-8869(00)00077-5', 'volume': '30', 'author': 'MH Scullin', 'year': '2001', 'unstructured': 'Scullin MH, Ceci SJ (2001) A suggestibility scale for children. Pers Individ Differ 30(5):843–856. doi: 10.1016/S0191-8869(00)00077-5', 'journal-title': 'Pers Individ Differ'}, {'key': '227_CR38', 'unstructured': 'Sidner C, Kidd C, Lee C, Lesh N (2004) Where to look: a study of human–robot engagement. In: Proceedings of the 9th international conference on Intelligent user interfaces, pp. 78–84. ACM', 'DOI': '10.1145/964442.964458', 'doi-asserted-by': 'crossref'}, {'issue': '46', 'key': '227_CR39', 'doi-asserted-by': 'crossref', 'first-page': '17954', 'DOI': '10.1073/pnas.0707769104', 'volume': '104', 'author': 'F Tanaka', 'year': '2007', 'unstructured': 'Tanaka F, Cicourel A, Movellan J (2007) Socialization between toddlers and robots at an early childhood education center. Proc Natl Acad Sci 104(46):17954', 'journal-title': 'Proc Natl Acad Sci'}, {'issue': '1', 'key': '227_CR40', 'doi-asserted-by': 'crossref', 'first-page': '176', 'DOI': '10.1037/0893-3200.22.1.176', 'volume': '22', 'author': 'J Vigil', 'year': '2008', 'unstructured': 'Vigil J, Geary D (2008) A preliminary investigation of family coping styles and psychological well-being among adolescent survivors of hurricane katrina. J Fam Psychol 22(1):176', 'journal-title': 'J Fam Psychol'}, {'key': '227_CR41', 'unstructured': 'Wada K, Shibata T, Saito T, Sakamoto K, Tanie K (2005) Psychological and social effects of one year robot assisted activity on elderly people at a health service facility for the aged. In: Robotics and Automation, 2005. ICRA 2005. Proceedings of the 2005 IEEE International Conference on, pp. 2785–2790. IEEE'}, {'key': '227_CR42', 'author': 'S Wellek', 'year': '2003', 'unstructured': 'Wellek S (2003) Testing statistical hypotheses of equivalence. CRC Press, Boca Raton', 'volume-title': 'Testing statistical hypotheses of equivalence'}]</t>
+  </si>
+  <si>
+    <t>[{'given': 'Iolanda', 'family': 'Leite', 'sequence': 'first', 'affiliation': []}, {'given': 'Ginevra', 'family': 'Castellano', 'sequence': 'additional', 'affiliation': []}, {'given': 'André', 'family': 'Pereira', 'sequence': 'additional', 'affiliation': []}, {'given': 'Carlos', 'family': 'Martinho', 'sequence': 'additional', 'affiliation': []}, {'given': 'Ana', 'family': 'Paiva', 'sequence': 'additional', 'affiliation': []}]</t>
+  </si>
+  <si>
+    <t>['X6PKYLT6', 'FCB8Y699', 'EX8YK5GV']</t>
+  </si>
+  <si>
     <t>10.1007/s10648-010-9123-x</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.1007/s10648-010-9123-x</t>
+  </si>
+  <si>
+    <t>Educational Psychology Review</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2010, 2, 24]]}</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2010, 3]]}</t>
+  </si>
+  <si>
+    <t>[{'key': '9123_CR1', 'unstructured': 'Alibali, M. W., &amp; Nathan, M. J. (2007). Teachers’ gestures as a means of scaffolding students’ understanding: Evidence from an early algebra lesson. In R. Goldman, R. Pea, B. Barron, &amp; S. Derry (Eds.), Video Research in the Learning Sciences (pp. 349–365). Mah Wah, NJ: Erlbaum.'}, {'key': '9123_CR2', 'first-page': '543', 'volume': '3', 'author': 'JF Andersen', 'year': '1979', 'unstructured': 'Andersen, J. F. (1979). Teacher immediacy as a predictor of teaching effectiveness. Communication Yearbook, 3, 543–559.', 'journal-title': 'Communication Yearbook'}, {'key': '9123_CR3', 'doi-asserted-by': 'crossref', 'first-page': '416', 'DOI': '10.1037/0022-0663.94.2.416', 'volume': '94', 'author': 'RK Atkinson', 'year': '2002', 'unstructured': 'Atkinson, R. K. (2002). Optimizing learning from examples using animated pedagogical agents. Journal of Educational Psychology, 94, 416–427.', 'journal-title': 'Journal of Educational Psychology'}, {'key': '9123_CR4', 'doi-asserted-by': 'crossref', 'first-page': '102', 'DOI': '10.1080/10508400701793141', 'volume': '17', 'author': 'JN Bailenson', 'year': '2008', 'unstructured': 'Bailenson, J. N., Yee, N., Blascovich, J., Beall, A. C., Lundblad, N., &amp; Jin, M. (2008). The use of immersive virtual reality in the learning sciences: Digital transformations of teachers, students, and social context. The Journal of the Learning Sciences, 17, 102–141.', 'journal-title': 'The Journal of the Learning Sciences'}, {'key': '9123_CR5', 'doi-asserted-by': 'crossref', 'first-page': '354', 'DOI': '10.1080/15213260802285214', 'volume': '11', 'author': 'JN Bailenson', 'year': '2008', 'unstructured': 'Bailenson, J. N., Patel, K., Nielsen, A., Bajcsy, R., Jung, S., &amp; Kurillo, G. (2008). The effect of interactivity on learning physical actions in virtual reality. Media Psychology, 11, 354–376.', 'journal-title': 'Media Psychology'}, {'key': '9123_CR6', 'author': 'A Bandura', 'year': '1977', 'unstructured': 'Bandura, A. (1977). Social learning theory. Englewood Cliffs: Prentice Hall.', 'volume-title': 'Social learning theory'}, {'key': '9123_CR7', 'author': 'JA Bargh', 'first-page': '1', 'year': '1994', 'unstructured': 'Bargh, J. A. (1994). The four horsemen of automaticity: Awareness, intention, efficiency, and control in social cognition. In R. S. Wyer &amp; T. K. Scrull (Eds.), Handbook of social cognition: Vol. 1, Basic processes (pp. 1–40). Hillsdale: LEA.', 'volume-title': 'Handbook of social cognition: Vol. 1, Basic processes'}, {'issue': '4', 'key': '9123_CR8', 'first-page': '403', 'volume': '12', 'author': 'AL Baylor', 'year': '2001', 'unstructured': 'Baylor, A. L. (2001). Permutations of control: Cognitive considerations for agent-based learning environments. Journal of Interactive Learning Research, 12(4), 403–425.', 'journal-title': 'Journal of Interactive Learning Research'}, {'key': '9123_CR9', 'unstructured': 'Baylor, A.L. &amp; Ebbers, S. (2003a). Evidence that Multiple Agents Facilitate Greater Learning. Paper presented at the International Artificial Intelligence in Education (AI-ED), Sydney, Australia.'}, {'key': '9123_CR10', 'author': 'AL Baylor', 'year': '2003', 'unstructured': 'Baylor, A. L., &amp; Ebbers, S. (2003b). The pedagogical agent split-persona effect: When two agents are better than one. Honolulu, Hawaii: Paper presented at ED-MEDIA.', 'volume-title': 'The pedagogical agent split-persona effect: When two agents are better than one'}, {'issue': '4', 'key': '9123_CR11', 'doi-asserted-by': 'crossref', 'first-page': '373', 'DOI': '10.2190/V0WQ-NWGN-JB54-FAT4', 'volume': '28', 'author': 'AL Baylor', 'year': '2003', 'unstructured': 'Baylor, A. L., &amp; Ryu, J. (2003). Does the presence of image and animation enhance pedagogical agent persona? Journal of Educational Computing Research, 28(4), 373–395.', 'journal-title': 'Journal of Educational Computing Research'}, {'key': '9123_CR12', 'author': 'A Baylor', 'first-page': '208', 'year': '2008', 'unstructured': 'Baylor, A., &amp; Kim, S. (2008). The effects of agents’ nonverbal communication on procedural and attitudinal learning outcomes. In H. Prendinger, J. Lester, &amp; M. Ishizuka (Eds.), Intelligent virtual agents 2008, LNAI 5208 (pp. 208–214). Berlin: Springer.', 'volume-title': 'Intelligent virtual agents 2008, LNAI 5208'}, {'key': '9123_CR13', 'author': 'G Bente', 'year': '2009', 'unstructured': 'Bente, G., &amp; Breuer, J. (2009). Making the Implicit Explicit: Embedded Measurement in Serious Games. In U. Ritterfeld, M. J. Cody, &amp; P. Vorderer (Eds.), The social science of serious games: Theories and applications. Philadelphia, PA: Routledge/LEA.', 'volume-title': 'The social science of serious games: Theories and applications'}, {'issue': '3', 'key': '9123_CR14', 'doi-asserted-by': 'crossref', 'first-page': '151', 'DOI': '10.1023/A:1010690525717', 'volume': '25', 'author': 'G Bente', 'year': '2001', 'unstructured': 'Bente, G., Krämer, N. C., Petersen, A., &amp; de Ruiter, J. P. (2001). Computer animated movement and person perception. Methodological advances in nonverbal behavior research. Journal of Nonverbal Behavior, 25(3), 151–166.', 'journal-title': 'Journal of Nonverbal Behavior'}, {'key': '9123_CR15', 'author': 'G Bente', 'first-page': '131', 'year': '2008', 'unstructured': 'Bente, G., Krämer, N. C., &amp; Eschenburg, F. (2008). Is There Anybody Out There? Analyzing the Effects of Embodiment and Nonverbal Behavior in Avatar-Mediated Communication. In E. Konijn, S. Utz, M. Tanis, &amp; S. Barnes (Eds.), Mediated interpersonal communication (pp. 131–157). New York: Routledge.', 'volume-title': 'Mediated interpersonal communication'}, {'issue': '2', 'key': '9123_CR16', 'doi-asserted-by': 'crossref', 'first-page': '287', 'DOI': '10.1111/j.1468-2958.2008.00322.x', 'volume': '34', 'author': 'G Bente', 'year': '2008', 'unstructured': 'Bente, G., Rüggenberg, S., Krämer, N. C., &amp; Eschenburg, F. (2008). Avatar-assisted net-working. Increasing social presence and interpersonal trust in net-based collaborations. Human Communication Research, 34(2), 287–318.', 'journal-title': 'Human Communication Research'}, {'key': '9123_CR17', 'author': 'G Biswas', 'first-page': '71', 'year': '2001', 'unstructured': 'Biswas, G., Schwartz, D., Bransford, J., &amp; Teachable Agents Group at Vanderbilt (TAG-V). (2001). Technology support for complex problem solving: From SAD environments to AI. In K. D. Forbus &amp; P. J. Feltovich (Eds.), Smart machines in education (pp. 71–98). Menlo Park, CA: AAAI.', 'volume-title': 'Smart machines in education'}, {'key': '9123_CR18', 'doi-asserted-by': 'crossref', 'first-page': '103', 'DOI': '10.1207/S15327965PLI1302_01', 'volume': '13', 'author': 'J Blascovich', 'year': '2002', 'unstructured': 'Blascovich, J., Loomis, J., Beall, A. C., Swinth, K. R., Hoyt, C. L., &amp; Bailenson, J. N. (2002). Immersive virtual environment technology as a methodological tool for social psychology. Psychological Inquiry, 13, 103–124.', 'journal-title': 'Psychological Inquiry'}, {'issue': '5', 'key': '9123_CR19', 'doi-asserted-by': 'crossref', 'first-page': '683', 'DOI': '10.1016/j.jesp.2003.10.007', 'volume': '40', 'author': 'J Blascovich', 'year': '2004', 'unstructured': 'Blascovich, J., Seery, M. D., Mugridge, C. A., Norris, R. K., &amp; Weisbuch, M. (2004). Predicting athletic performance from cardiovascular indexes of challenge and threat. Journal of Experimental Social Psychology, 40(5), 683–688.', 'journal-title': 'Journal of Experimental Social Psychology'}, {'issue': '6', 'key': '9123_CR20', 'doi-asserted-by': 'crossref', 'first-page': '962', 'DOI': '10.1037/0022-3514.63.6.962', 'volume': '63', 'author': 'R Buck', 'year': '1992', 'unstructured': 'Buck, R., Losow, J. I., Murphy, M. M., &amp; Constanzo, P. (1992). Social facilitation and inhibition of emotional expression and communication. Journal of Personality and Social Psychology, 63(6), 962–968.', 'journal-title': 'Journal of Personality and Social Psychology'}, {'issue': '12', 'key': '9123_CR21', 'doi-asserted-by': 'crossref', 'first-page': '50', 'DOI': '10.1145/355112.355123', 'volume': '43', 'author': 'J Cassell', 'year': '2000', 'unstructured': 'Cassell, J., &amp; Bickmore, T. (2000). External manifestations of trustworthiness in the interface. Communications of the ACM, 43(12), 50–56.', 'journal-title': 'Communications of the ACM'}, {'key': '9123_CR22', 'unstructured': "Cassell, J., Bickmore, T., Billinghurst, M., Campbell, L., Chang, K., Vilhjálmsson, H. &amp; Yan, H. (1999). Embodiment in conversational interfaces: Rea. CHI'99 Conference Proceedings (pp. 520-527). New York: Association for Computing Machinery."}, {'key': '9123_CR23', 'doi-asserted-by': 'crossref', 'first-page': '163', 'DOI': '10.1080/08351819109389361', 'volume': '25', 'author': 'N Chovil', 'year': '1991', 'unstructured': 'Chovil, N. (1991). Discourse oriented facial displays in conversation. Research on Language and Social Interaction, 25, 163–194.', 'journal-title': 'Research on Language and Social Interaction'}, {'issue': '3', 'key': '9123_CR24', 'first-page': '267', 'volume': '11', 'author': 'G Clarebout', 'year': '2002', 'unstructured': 'Clarebout, G., Elen, J., Johnson, W. L., &amp; Shaw, E. (2002). Animated pedagogical agents. An opportunity to be grasped? Journal of Educational Multimedia and Hypermedia, 11(3), 267–286.', 'journal-title': 'Journal of Educational Multimedia and Hypermedia'}, {'key': '9123_CR25', 'author': 'HH Clark', 'year': '1996', 'unstructured': 'Clark, H. H. (1996). Using language. Cambridge: Cambridge University Press.', 'volume-title': 'Using language', 'DOI': '10.1017/CBO9780511620539', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR26', 'first-page': '242', 'volume': '11', 'author': 'S Craig', 'year': '2000', 'unstructured': 'Craig, S., Gholson, B., Ventura, M., Graesser, A. C., &amp; the TRG. (2000). Overhearing dialogues and monologues in a virtual tutoring session: Effects on questioning and vicarious learning. International Journal of Artificial Intelligence in Education, 11, 242–253.', 'journal-title': 'International Journal of Artificial Intelligence in Education'}, {'key': '9123_CR27', 'doi-asserted-by': 'crossref', 'first-page': '428', 'DOI': '10.1037/0022-0663.94.2.428', 'volume': '94', 'author': 'SD Craig', 'year': '2002', 'unstructured': 'Craig, S. D., Gholson, B., &amp; Driscoll, D. (2002). Animated pedagogical agents in multimedia educational environments: Effects of agent properties, picture features, and redundancy. Journal of Educational Psychology, 94, 428–434.', 'journal-title': 'Journal of Educational Psychology'}, {'key': '9123_CR28', 'doi-asserted-by': 'crossref', 'first-page': '241', 'DOI': '10.1080/1358165042000283101', 'volume': '29', 'author': 'SD Craig', 'year': '2004', 'unstructured': 'Craig, S. D., Graesser, A. C., Sullins, J., &amp; Gholson, B. (2004). Affect and learning: An exploratory look into the role of affect in learning. Journal of Educational Media, 29, 241–250.', 'journal-title': 'Journal of Educational Media'}, {'key': '9123_CR29', 'doi-asserted-by': 'crossref', 'first-page': '777', 'DOI': '10.1080/02699930701516759', 'volume': '22', 'author': 'S Craig', 'year': '2007', 'unstructured': "Craig, S., D'Mello, S., Witherspoon, A., &amp; Graesser, A. (2007). Emote-aloud during learning with AutoTutor: Applying the facial action coding system to cognitive–affective states during learning. Cognition and Emotion, 22, 777–788.", 'journal-title': 'Cognition and Emotion'}, {'key': '9123_CR30', 'author': 'EL Deci', 'year': '1985', 'unstructured': 'Deci, E. L., &amp; Ryan, R. M. (1985). Intrinsic motivation and self-determination in human behavior. New York: Plenum.', 'volume-title': 'Intrinsic motivation and self-determination in human behavior', 'DOI': '10.1007/978-1-4899-2271-7', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR31', 'doi-asserted-by': 'crossref', 'first-page': '1', 'DOI': '10.1006/ijhc.1999.0325', 'volume': '52', 'author': 'DM Dehn', 'year': '2000', 'unstructured': 'Dehn, D. M., &amp; van Mulken, S. (2000). The impact of animated interface agents: a review of empirical research. International Journal of Human Computer Studies, 52, 1–22.', 'journal-title': 'International Journal of Human Computer Studies'}, {'key': '9123_CR32', 'unstructured': 'Domagk, S. (2008). Pädagogische Agenten in multimedialen Lernumgebungen. Empirische Studien zum Einfluss der Sympathie auf Motivation und Lernerfolg [Pedagogical agents in multimedia learning environments. Empirical studies on the influence of likability on motivation and learning]. Berlin: Logos.'}, {'key': '9123_CR33', 'unstructured': 'Elliott, C., Rickel, J. &amp; Lester, J. C. (1997). Integrating affective computing into animated tutoring agents. Proceedings of the IJCAI Workshop on Animated Interface Agents: Making Them Intelligent, 113-121.'}, {'key': '9123_CR34', 'author': 'C Elliott', 'first-page': '195', 'year': '1999', 'unstructured': 'Elliott, C., Rickel, J., &amp; Lester, J. (1999). Lifelike Pedagogical Agents and Affective Computing: An Exploratory Synthesis. In M. Wooldridge &amp; M. Veloso (Eds.), Artificial intelligence today. Lecture notes in computer science 1600 (pp. 195–212). Berlin: Springer.', 'volume-title': 'Artificial intelligence today. Lecture notes in computer science 1600'}, {'key': '9123_CR35', 'unstructured': 'Essa, I. A. (1995). Analysis, interpretation and synthesis of facial expressions. PHD-Thesis, MIT.'}, {'issue': '2', 'key': '9123_CR36', 'doi-asserted-by': 'crossref', 'first-page': '171', 'DOI': '10.1016/j.ijpsycho.2004.11.003', 'volume': '56', 'author': 'SH Fairclough', 'year': '2005', 'unstructured': 'Fairclough, S. H., Venables, L., &amp; Tattersall, A. (2005). The influence of task demand and learning on the psychophysiological response. International Journal of Psychophysiology, 56(2), 171–184.', 'journal-title': 'International Journal of Psychophysiology'}, {'key': '9123_CR37', 'author': 'S Frey', 'first-page': '143', 'year': '1983', 'unstructured': 'Frey, S., Hirsbrunner, H.-P., Florin, A., Daw, W., &amp; Crawford, R. (1983). A unified approach to the investigation of nonverbal and verbal behavior in communication research. In W. Doise &amp; S. Moscovici (Eds.), Current issues in European Social Psychology (pp. 143–199). Cambridge: Cambridge University Press.', 'volume-title': 'Current issues in European Social Psychology'}, {'key': '9123_CR38', 'doi-asserted-by': 'crossref', 'first-page': '59', 'DOI': '10.1177/1461445606059555', 'volume': '8', 'author': 'AC Graesser', 'year': '2006', 'unstructured': 'Graesser, A. C. (2006). Views from a cognitive scientist: Cognitive representations underlying discourse are sometimes social. Discourse Studies, 8, 59–66.', 'journal-title': 'Discourse Studies'}, {'key': '9123_CR39', 'doi-asserted-by': 'crossref', 'first-page': '35', 'DOI': '10.1016/S1389-0417(99)00005-4', 'volume': '1', 'author': 'AC Graesser', 'year': '1999', 'unstructured': 'Graesser, A. C., Wiemer-Hastings, K., Wiemer-Hastings, P., Kreuz, R., &amp; the Tutoring Research Group. (1999). AutoTutor: A simulation of a human tutor. Journal of Cognitive Systems Research, 1, 35–51.', 'journal-title': 'Journal of Cognitive Systems Research'}, {'key': '9123_CR40', 'unstructured': 'Graesser, A. C., Person, N., Harter, D., &amp; TRG (2000). Teaching tactics in AutoTutor. Paper presented at the workshop on tutorial dialogue at the Intelligent Tutoring Systems 2000 Conference, Montreal, Canada.'}, {'key': '9123_CR41', 'first-page': '39', 'volume': '22', 'author': 'AC Graesser', 'year': '2001', 'unstructured': 'Graesser, A. C., VanLehn, K., Rose, C., Jordan, P., Harter, D., Person, N., et al. (2001). Intelligent tutoring systems with conversational dialogue. AI Magazine, 22, 39–51.', 'journal-title': 'AI Magazine'}, {'key': '9123_CR42', 'first-page': '19', 'volume': '47', 'author': 'AC Graesser', 'year': '2007', 'unstructured': 'Graesser, A. C., Jackson, G. T., &amp; McDaniel, B. (2007). AutoTutor holds conversations with learners that are responsive to their cognitive and emotional states. Educational Technology, 47, 19–22.', 'journal-title': 'Educational Technology'}, {'key': '9123_CR43', 'first-page': '293', 'volume': '19', 'author': 'AC Graesser', 'year': '2008', 'unstructured': 'Graesser, A. C., D’Mello, S. K., Craig, S. D., Witherspoon, A., Sullins, J., McDaniel, B., et al. (2008). The relationship between affect states and dialogue patterns during interactions with AutoTutor. Journal of Interactive Learning Research, 19, 293–312.', 'journal-title': 'Journal of Interactive Learning Research'}, {'issue': '3', 'key': '9123_CR44', 'doi-asserted-by': 'crossref', 'first-page': '487', 'DOI': '10.1037/0022-3514.77.3.487', 'volume': '77', 'author': 'K Grammer', 'year': '1999', 'unstructured': 'Grammer, K., Honda, M., Jütte, A., &amp; Schmitt, A. (1999). Fuzziness of nonverbal courtship communication unblurred by motion energy detection. Journal of Personality and Social Psychology, 77(3), 487–508.', 'journal-title': 'Journal of Personality and Social Psychology'}, {'key': '9123_CR45', 'first-page': '47', 'volume': '11', 'author': 'WL Johnson', 'year': '2000', 'unstructured': 'Johnson, W. L., Rickel, J. W., &amp; Lester, J. C. (2000). Animated pedagogical agents: Face-to-face interaction in interactive learning environments. The International Journal of Artificial Intelligence in Education, 11, 47–78.', 'journal-title': 'The International Journal of Artificial Intelligence in Education'}, {'issue': '2', 'key': '9123_CR46', 'doi-asserted-by': 'crossref', 'first-page': '60', 'DOI': '10.1026//0044-3409.211.2.60', 'volume': '211', 'author': 'R Jucks', 'year': '2003', 'unstructured': 'Jucks, R., Bromme, R., &amp; Runde, A. (2003). Audience Design von Experten in der netzgestützten Kommunikation: Die Rolle von Heuristiken über das geteilte Vorwissen [Audience design of experts in net-based communication: the role of heuristics on shared prior knowledge]. Zeitschrift für Psychologie [Journal of Psychology], 211(2), 60–74.', 'journal-title': 'Zeitschrift für Psychologie [Journal of Psychology]'}, {'key': '9123_CR47', 'author': 'S Kiesler', 'first-page': '191', 'year': '1997', 'unstructured': 'Kiesler, S., &amp; Sproull, L. (1997). “Social” Human-Computer Interaction. In B. Friedman (Ed.), Human values and the design of computer technology (pp. 191–199). Cambridge: Cambridge University Press.', 'volume-title': 'Human values and the design of computer technology'}, {'key': '9123_CR48', 'author': 'Y Kim', 'year': '2004', 'unstructured': 'Kim, Y. (2004). Pedagogical agents as learning companions: The effects of agent affect and gender on learning, interest, self-efficacy, and agent persona. Tallahassee, FL: Florida State University.', 'volume-title': 'Pedagogical agents as learning companions: The effects of agent affect and gender on learning, interest, self-efficacy, and agent persona'}, {'issue': '6', 'key': '9123_CR49', 'doi-asserted-by': 'crossref', 'first-page': '569', 'DOI': '10.1007/s11423-006-0637-3', 'volume': '54', 'author': 'Y Kim', 'year': '2006', 'unstructured': 'Kim, Y., &amp; Baylor, A. L. (2006). A social–cognitive framework for pedagogical agents as learning companions. Educational Technology Research &amp; Development, 54(6), 569–590.', 'journal-title': 'Educational Technology Research &amp; Development'}, {'key': '9123_CR50', 'doi-asserted-by': 'crossref', 'first-page': '5', 'DOI': '10.1016/0742-051X(85)90026-5', 'volume': '1', 'author': 'KJ Klauer', 'year': '1985', 'unstructured': 'Klauer, K. J. (1985). Framework for a theory of teaching. Teaching and Teacher Education, 1, 5–17.', 'journal-title': 'Teaching and Teacher Education'}, {'key': '9123_CR51', 'first-page': '30', 'volume': '8', 'author': 'KR Koedinger', 'year': '1997', 'unstructured': 'Koedinger, K. R., &amp; Anderson, J. R. (1997). Intelligent tutoring goes to school in the big city. International Journal of Artificial Intelligence in Education, 8, 30–43.', 'journal-title': 'International Journal of Artificial Intelligence in Education'}, {'key': '9123_CR52', 'author': 'S Kopp', 'year': '2005', 'unstructured': 'Kopp, S., Gesellensetter, L., Krämer, N. C., &amp; Wachsmuth, I. (2005). A conversational agent as museum guide – design and evaluation of a real-world application. In R. Aylett et al. (Eds.), IVA 2005, International Working Conference on Intelligent Virtual Agents. Berlin: Springer.', 'volume-title': 'IVA 2005, International Working Conference on Intelligent Virtual Agents'}, {'key': '9123_CR53', 'author': 'NC Krämer', 'year': '2001', 'unstructured': 'Krämer, N. C. (2001). Bewegende Bewegung. Sozio-emotionale Wirkungen nonverbalen Verhaltens und deren experimentelle Untersuchung mittels Computeranimation. [Moving movements. Socio-emotional effects of nonverbal behaviour and its experimental analysis using computer animation]. Lengerich: Pabst.', 'volume-title': 'Bewegende Bewegung. Sozio-emotionale Wirkungen nonverbalen Verhaltens und deren experimentelle Untersuchung mittels Computeranimation. [Moving movements. Socio-emotional effects of nonverbal behaviour and its experimental analysis using computer animation]'}, {'key': '9123_CR54', 'author': 'NC Krämer', 'first-page': '442', 'year': '2005', 'unstructured': 'Krämer, N. C. (2005). Social communicative effects of a virtual program guide. In T. Panayiotopoulos et al. (Eds.), Intelligent virtual agents 2005 (pp. 442–543). Hamburg: Springer.', 'volume-title': 'Intelligent virtual agents 2005', 'DOI': '10.1007/11550617_37', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR55', 'author': 'NC Krämer', 'year': '2008', 'unstructured': 'Krämer, N. C. (2008a). Soziale Wirkungen virtueller Helfer. Gestaltung und Evaluation von Mensch-Computer-Interaktion [Social effects of virtual assistants. Design and evaluation of human-computer interaction]. Stuttgart: Kohlhammer.', 'volume-title': 'Soziale Wirkungen virtueller Helfer. Gestaltung und Evaluation von Mensch-Computer-Interaktion [Social effects of virtual assistants. Design and evaluation of human-computer interaction]'}, {'key': '9123_CR56', 'author': 'NC Krämer', 'first-page': '222', 'year': '2008', 'unstructured': 'Krämer, N. C. (2008b). Theory of Mind as a theoretical prerequisite to model communication with virtual humans. In I. Wachsmuth &amp; G. Knoblich (Eds.), Modeling communication with robots and virtual humans (pp. 222–240). Berlin: Springer.', 'volume-title': 'Modeling communication with robots and virtual humans', 'DOI': '10.1007/978-3-540-79037-2_12', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR57', 'author': 'NC Krämer', 'first-page': '150', 'year': '2008', 'unstructured': 'Krämer, N. C. (2008c). Nonverbal Communication. In J. Blascovich &amp; C. Hartel (Eds.), Human behavior in military contexts (pp. 150–188). Washington: The National Academies Press.', 'volume-title': 'Human behavior in military contexts'}, {'key': '9123_CR58', 'unstructured': 'Krämer, N. C., Bente, G. &amp; Piesk, J. (2003a). The ghost in the machine. The influence of Embodied Conversational Agents on user expectations and user behaviour in a TV/VCR application. In G. Bieber &amp; T. Kirste (eds)., IMC Workshop 2003, Assistance, Mobility, Applications (pp. 121-128). Rostock.'}, {'key': '9123_CR59', 'author': 'NC Krämer', 'first-page': '292', 'year': '2003', 'unstructured': 'Krämer, N. C., Tietz, B., &amp; Bente, G. (2003). Effects of embodied interface agents and their gestural activity. In R. Aylett, D. Ballin, T. Rist, &amp; J. Rickel (Eds.), 4th International Working Conference on Intelligent Virtual Agents (pp. 292–300). Hamburg: Springer.', 'volume-title': '4th International Working Conference on Intelligent Virtual Agents', 'DOI': '10.1007/978-3-540-39396-2_49', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR60', 'author': 'NC Krämer', 'first-page': '238', 'year': '2007', 'unstructured': 'Krämer, N. C., Simons, N., &amp; Kopp, S. (2007). The effects of an embodied agent’s nonverbal behavior on user’s evaluation and behavioural mimicry. In C. Pelachaud et al. (Eds.), Intelligent virtual agents 2007 (pp. 238–251). Berlin: Springer.', 'volume-title': 'Intelligent virtual agents 2007', 'DOI': '10.1007/978-3-540-74997-4_22', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR61', 'author': 'EJ Langer', 'year': '1989', 'unstructured': 'Langer, E. J. (1989). Mindfulness. Reading, MA: Addison-Wesley.', 'volume-title': 'Mindfulness'}, {'key': '9123_CR62', 'author': 'JC Lester', 'first-page': '59', 'year': '1997', 'unstructured': "Lester, J. C., Converse, S. A., Kahler, S. E., Barlow, S. T., Stone, B. A., &amp; Bogal, R. S. (1997). The Persona Effect: Affective Impact of Animated Pedagogical Agents. In S. Pemberton (Ed.), Human factors in computing systems: CHI'97 Conference proceedings (pp. 59–366). New York: ACM.", 'volume-title': "Human factors in computing systems: CHI'97 Conference proceedings"}, {'key': '9123_CR63', 'doi-asserted-by': 'crossref', 'first-page': '383', 'DOI': '10.1080/088395199117324', 'volume': '13', 'author': 'JC Lester', 'year': '1999', 'unstructured': 'Lester, J. C., Voerman, J. L., Towns, S. G., &amp; Callaway, C. B. (1999). Deictic believability: coordinating gesture, locomotion, and speech in lifelike pedagogical agents. Applied Artificial Intelligence, 13, 383–414.', 'journal-title': 'Applied Artificial Intelligence'}, {'key': '9123_CR64', 'author': 'JC Lester', 'first-page': '123', 'year': '2000', 'unstructured': 'Lester, J. C., Towns, S. G., Callaway, C. B., Voerman, J. L., &amp; FitzGerald, P. J. (2000). Deictic and emotive communication in animated pedagogical agents. In J. Cassell, J. Sullivan, S. Prevost, &amp; E. Churchill (Eds.), Embodied conversational agents (pp. 123–154). Boston: MIT Press.', 'volume-title': 'Embodied conversational agents'}, {'key': '9123_CR65', 'author': 'D Leutner', 'first-page': '289', 'year': '2004', 'unstructured': 'Leutner, D. (2004). Instructional-design principles for adaptivity in open learning environments. In N. M. Seel &amp; S. Dijkstra (Eds.), Curriculum, plans and processes of instructional design: international perspectives (pp. 289–307). Mahwah, NJ: Lawrence Erlbaum.', 'volume-title': 'Curriculum, plans and processes of instructional design: international perspectives'}, {'key': '9123_CR66', 'doi-asserted-by': 'crossref', 'first-page': '174', 'DOI': '10.1027/0044-3409.215.3.174', 'volume': '215', 'author': 'D Leutner', 'year': '2007', 'unstructured': 'Leutner, D., Leopold, C., &amp; den Elzen-Rump, V. (2007). Self-regulated learning with a text-highlighting strategy: A training experiment. Zeitschrift für Psychologie/Journal of Psychology, 215, 174–182.', 'journal-title': 'Zeitschrift für Psychologie/Journal of Psychology'}, {'issue': '4', 'key': '9123_CR67', 'doi-asserted-by': 'crossref', 'first-page': '348', 'DOI': '10.1016/j.ijhcs.2006.11.015', 'volume': '65', 'author': 'S McQuiggan', 'year': '2007', 'unstructured': 'McQuiggan, S., &amp; Lester, J. (2007). Modeling and evaluating empathy in embodied companion agents. International Journal of Human Computer Studies, 65(4), 348–360.', 'journal-title': 'International Journal of Human Computer Studies'}, {'key': '9123_CR68', 'unstructured': 'Moreno, R. (2001). Software agents in multimedia: An experimental study of their contributions to students’ learning. Human-Computer Interaction Proceedings (pp. 275-277), Mahwah, NJ: Lawrence Erlbaum Associates.'}, {'key': '9123_CR69', 'unstructured': 'Moreno, R. (2003). The Role of Software Agents in Multimedia Learning Environments: When Do They Help Students Reduce Cognitive Load? Paper presented at the European Association for Research on Learning and Instruction Annual Conference, Padova, Italy.'}, {'issue': '6', 'key': '9123_CR70', 'first-page': '23', 'volume': '44', 'author': 'R Moreno', 'year': '2004', 'unstructured': 'Moreno, R. (2004). Animated pedagogical agents in educational technology. Educational Technology, 44(6), 23–30.', 'journal-title': 'Educational Technology'}, {'key': '9123_CR71', 'doi-asserted-by': 'crossref', 'first-page': '309', 'DOI': '10.1007/s10648-007-9047-2', 'volume': '19', 'author': 'R Moreno', 'year': '2007', 'unstructured': 'Moreno, R., &amp; Mayer, R. (2007). Interactive multimodal learning environments. Special issue on interactive learning environments: contemporary issues and trends. Educational Psychology Review, 19, 309–326.', 'journal-title': 'Educational Psychology Review'}, {'key': '9123_CR72', 'doi-asserted-by': 'crossref', 'first-page': '177', 'DOI': '10.1207/S1532690XCI1902_02', 'volume': '19', 'author': 'R Moreno', 'year': '2001', 'unstructured': 'Moreno, R., Mayer, R. E., Spires, H., &amp; Lester, J. (2001). The case for social agency in computer-based teaching: Do students learn more deeply when they interact with animated pedagogical agents? Cognition and Instruction, 19, 177–213.', 'journal-title': 'Cognition and Instruction'}, {'issue': '1', 'key': '9123_CR73', 'doi-asserted-by': 'crossref', 'first-page': '81', 'DOI': '10.1111/0022-4537.00153', 'volume': '56', 'author': 'C Nass', 'year': '2000', 'unstructured': 'Nass, C., &amp; Moon, Y. (2000). Machines and mindlessness: Social responses to computers. Journal of Social Issues, 56(1), 81–103.', 'journal-title': 'Journal of Social Issues'}, {'key': '9123_CR74', 'author': 'C Nass', 'first-page': '137', 'year': '1997', 'unstructured': 'Nass, C., Moon, Y., Morkes, J., Kim, E.-Y., &amp; Fogg, B. J. (1997). Computers are social actors: A review of current research. In B. Friedman (Ed.), Moral and ethical issues in human–computer interaction (pp. 137–162). Stanford, CA: CSLI.', 'volume-title': 'Moral and ethical issues in human–computer interaction'}, {'key': '9123_CR75', 'author': 'SY Okita', 'year': '2008', 'unstructured': 'Okita, S. Y., Bailenson, J., &amp; Schwartz, D. L. (2008). Mere Belief of Social Action Improves Complex Learning. In S. Barab, K. Hay, &amp; D. Hickey (Eds.), Proceedings of the 8th International Conference for the Learning Sciences. New Jersey: Lawrence Erlbaum.', 'volume-title': 'Proceedings of the 8th International Conference for the Learning Sciences'}, {'key': '9123_CR76', 'doi-asserted-by': 'crossref', 'first-page': '737', 'DOI': '10.1177/001872089303500412', 'volume': '35', 'author': 'F Paas', 'year': '1993', 'unstructured': 'Paas, F., &amp; van Merriënboer, J. (1993). The efficiency of instructional conditions: An approach to combine mental-effort and performance measures. Human Factors, 35, 737–743.', 'journal-title': 'Human Factors'}, {'key': '9123_CR77', 'doi-asserted-by': 'crossref', 'first-page': '1', 'DOI': '10.1207/S15326985EP3801_1', 'volume': '38', 'author': 'F Paas', 'year': '2003', 'unstructured': 'Paas, F., Renkl, A., &amp; Sweller, J. (2003). Cognitive load theory and instructional design: Recent developments. Educational Psychologist, 38, 1–4.', 'journal-title': 'Educational Psychologist'}, {'key': '9123_CR78', 'doi-asserted-by': 'crossref', 'first-page': '123', 'DOI': '10.1016/S0747-5632(98)00035-1', 'volume': '15', 'author': 'S Parise', 'year': '1999', 'unstructured': 'Parise, S., Kiesler, S., Sproull, L., &amp; Waters, K. (1999). Cooperating with life-like interface agents. Computers in Human Behavior, 15, 123–142.', 'journal-title': 'Computers in Human Behavior'}, {'issue': '1–2', 'key': '9123_CR79', 'doi-asserted-by': 'crossref', 'first-page': '185', 'DOI': '10.1016/S1071-5819(03)00017-X', 'volume': '59', 'author': 'T Partala', 'year': '2003', 'unstructured': 'Partala, T., &amp; Surakka, V. (2003). Pupil size variation as an indication of affective processing. International Journal of Human Computer Studies, 59(1–2), 185–198.', 'journal-title': 'International Journal of Human Computer Studies'}, {'key': '9123_CR80', 'author': 'NK Person', 'first-page': '286', 'year': '2001', 'unstructured': 'Person, N. K., Graesser, A. C., Bautista, L., Mathews, E., &amp; TRG. (2001). Evaluating student learning gains in two versions of AutoTutor. In J. D. Moore, C. L. Redfield, &amp; W. L. Johnson (Eds.), Artificial intelligence in education: AI-ED in the wired and wireless future (pp. 286–293). Amsterdam: OIS.', 'volume-title': 'Artificial intelligence in education: AI-ED in the wired and wireless future'}, {'key': '9123_CR81', 'doi-asserted-by': 'crossref', 'first-page': '117', 'DOI': '10.1023/A:1017319110294', 'volume': '4', 'author': 'S Rajan', 'year': '2001', 'unstructured': 'Rajan, S., Craig, S. D., Gholson, B., Person, N. K., Graesser, A. C., &amp; TRG. (2001). AutoTutor: Incorporating backchannel feedback and other human-like conversational behaviors into an intelligent tutoring system. International Journal of Speech Technology, 4, 117–126.', 'journal-title': 'International Journal of Speech Technology'}, {'key': '9123_CR82', 'author': 'B Reeves', 'year': '1996', 'unstructured': 'Reeves, B., &amp; Nass, C. I. (1996). The media equation: How people treat computers, television, and new media like real people and places. New York: Cambridge University Pre</t>
+  </si>
+  <si>
+    <t>[{'given': 'Nicole C.', 'family': 'Krämer', 'sequence': 'first', 'affiliation': []}, {'given': 'Gary', 'family': 'Bente', 'sequence': 'additional', 'affiliation': []}]</t>
+  </si>
+  <si>
+    <t>['X6PKYLT6', 'XUWSESUJ', 'V6HK5X8G', 'EX8YK5GV']</t>
+  </si>
+  <si>
     <t>10.1145/2559636.2559671</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.1145/2559636.2559671</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2014 ACM/IEEE international conference on Human-robot interaction</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2014]]}</t>
+  </si>
+  <si>
+    <t>ACM Press</t>
+  </si>
+  <si>
+    <t>New York, New York, USA</t>
+  </si>
+  <si>
+    <t>[{'given': 'Daniel', 'family': 'Leyzberg', 'sequence': 'first', 'affiliation': []}, {'given': 'Samuel', 'family': 'Spaulding', 'sequence': 'additional', 'affiliation': []}, {'given': 'Brian', 'family': 'Scassellati', 'sequence': 'additional', 'affiliation': []}]</t>
+  </si>
+  <si>
     <t>10.1145/2696454.2696457</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.1145/2696454.2696457</t>
+  </si>
+  <si>
+    <t>2015 10th ACM/IEEE International Conference on Human-Robot Interaction (HRI)</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2015]]}</t>
+  </si>
+  <si>
+    <t>[{'key': 'key-10.1145/2696454.2696457-1', 'unstructured': "R. K. Atkinson, R. E. Mayer, and M. M. Merrill. Fostering social agency in multimedia learning: Examining the impact of an animated agent's voice. Contemporary Educational Psychology, 30(1):117--139, 2005."}, {'key': 'key-10.1145/2696454.2696457-2', 'unstructured': "P. Baxter, R. Wood, and T. Belpaeme. A touchscreen-based 'sandtray' to facilitate, mediate and contextualise human-robot social interaction. In Proc. HRI'12, pages 105--106, 2012.", 'DOI': '10.1145/2157689.2157707', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-3', 'unstructured': 'T. Belpaeme, P. Baxter, R. Read, R. Wood, H. Cuayahuitl, B. Kiefer, et al. Multimodal child-robot interaction: Building social bonds. Journal of Human-Robot Interaction, 1(2):33--53, 2012.'}, {'key': 'key-10.1145/2696454.2696457-4', 'unstructured': 'O. A. Blanson Henkemans, B. P. Bierman, J. Janssen, M. A. Neerincx, R. Looije, H. van der Bosch, et al. Using a robot to personalise health education for children with diabetes type 1: A pilot study. Patient Education and Counseling, 92(2):174--181, 2013.'}, {'key': 'key-10.1145/2696454.2696457-5', 'unstructured': 'B. S. Bloom. The 2 sigma problem: The search for methods of group instruction as effective as one-to-one tutoring. Educational researcher, pages 4--16, 1984.', 'DOI': '10.3102/0013189X013006004', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-6', 'unstructured': "J. Han, M. Jo, S. Park, and S. Kim. The educational use of home robots for children. In IEEE RO-MAN'05, pages 378--383, 2005."}, {'key': 'key-10.1145/2696454.2696457-7', 'unstructured': 'T. Kanda, T. Hirano, D. Eaton, and H. Ishiguro. Interactive robots as social partners and peer tutors for children: A field trial. Human-Computer Interaction, 19(1):61--84, 2004.'}, {'key': 'key-10.1145/2696454.2696457-8', 'unstructured': "J. Kennedy, P. Baxter, and T. Belpaeme. Constraining content in mediated unstructured social interactions: Studies in the wild. In Proc. AFFINE'13, at ACII'13, pages 728--733, 2013.", 'DOI': '10.1109/ACII.2013.135', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-9', 'unstructured': "J. Kennedy, P. Baxter, and T. Belpaeme. Children comply with a robot's indirect requests. In Proc. HRI'14, pages 198--199, 2014.", 'DOI': '10.1145/2559636.2559820', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-10', 'unstructured': 'J. Kennedy, P. Baxter, and T. Belpaeme. Comparing robot embodiments in a guided discovery learning interaction with children. International Journal of Social Robotics, accepted.'}, {'key': 'key-10.1145/2696454.2696457-11', 'unstructured': 'H. Kose-Bagci, E. Ferrari, K. Dautenhahn, D. S. Syrdal, and C. L. Nehaniv. Effects of embodiment and gestures on social interaction in drumming games with a humanoid robot. Advanced Robotics, 23(14):1951--1996, 2009.', 'DOI': '10.1163/016918609X12518783330360', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-12', 'unstructured': 'J. R. Landis and G. G. Koch. The measurement of observer agreement for categorical data. Biometrics, 33(1):159--174, 1977.', 'DOI': '10.2307/2529310', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-13', 'unstructured': "D. Leyzberg, S. Spaulding, and B. Scassellati. Personalizing robot tutors to individual learning differences. In Proc. HRI'14, pages 423--430, 2014.", 'DOI': '10.1145/2559636.2559671', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-14', 'unstructured': "D. Leyzberg, S. Spaulding, M. Toneva, and B. Scassellati. The physical presence of a robot tutor increases cognitive learning gains. In Proc. CogSci'12, pages 1882--1887, 2012."}, {'key': 'key-10.1145/2696454.2696457-15', 'unstructured': 'R. E. Mayer, S. Fennell, L. Farmer, and J. Campbell. A personalization effect in multimedia learning: Students learn better when words are in conversational style rather than formal style. Journal of Educational Psychology, 96(2):389, 2004.'}, {'key': 'key-10.1145/2696454.2696457-16', 'unstructured': "L. Moshkina, S. Trickett, and J. G. Trafton. Social engagement in public places: a tale of one robot. In Proc. HRI'14, pages 382--389, 2014.", 'DOI': '10.1145/2559636.2559678', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-17', 'unstructured': "M. E. O'Neill. The genuine sieve of eratosthenes. Journal of Functional Programming, 19(01):95--106, 2009.", 'DOI': '10.1017/S0956796808007004', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-18', 'unstructured': "M. Saerbeck, T. Schut, C. Bartneck, and M. D. Janse. Expressive robots in education: Varying the degree of social supportive behavior of a robotic tutor. In Proc. CHI'10, pages 1613--1622, 2010.", 'DOI': '10.1145/1753326.1753567', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-19', 'unstructured': "P. Schermerhorn, M. Scheutz, and C. R. Crowell. Robot social presence and gender: Do females view robots differently than males? In Proc. HRI'08, pages 263--270, 2008.", 'DOI': '10.1145/1349822.1349857', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-20', 'unstructured': "E. Short, K. Swift-Spong, J. Greczek, A. Ramachandran, A. Litoiu, E. C. Grigore, et al. How to train your dragonbot: Socially assistive robots for teaching children about nutrition through play. In IEEE RO-MAN'14, pages 924--929, 2014.", 'DOI': '10.1109/ROMAN.2014.6926371', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-21', 'unstructured': 'J. Sweller. Cognitive load theory, learning difficulty, and instructional design. Learning and instruction, 4(4):295--312, 1994.', 'DOI': '10.1016/0959-4752(94)90003-5', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-22', 'unstructured': "D. Szafir and B. Mutlu. Pay attention!: Designing adaptive agents that monitor and improve user engagement. In Proc. CHI'12, pages 11--20, 2012.", 'DOI': '10.1145/2207676.2207679', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-23', 'unstructured': 'K. VanLehn. The relative effectiveness of human tutoring, intelligent tutoring systems, and other tutoring systems. Educational Psychologist, 46(4):197--221, 2011.', 'DOI': '10.1080/00461520.2011.611369', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-24', 'unstructured': 'K. VanLehn, S. Siler, C. Murray, T. Yamauchi, and W. B. Baggett. Why do only some events cause learning during human tutoring? Cognition and Instruction, 21(3):209--249, 2003.', 'DOI': '10.1207/S1532690XCI2103_01', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-25', 'unstructured': 'L. S. Vygotsky. Mind in society: The development of higher psychological processes. Harvard university press, 1980.', 'DOI': '10.2307/j.ctvjf9vz4', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-26', 'unstructured': 'J. Zaki. Cue integration a common framework for social cognition and physical perception. Perspectives on Psychological Science, 8(3):296--312, 2013.', 'DOI': '10.1177/1745691613475454', 'doi-asserted-by': 'crossref'}]</t>
+  </si>
+  <si>
+    <t>[{'given': 'James', 'family': 'Kennedy', 'sequence': 'first', 'affiliation': []}, {'given': 'Paul', 'family': 'Baxter', 'sequence': 'additional', 'affiliation': []}, {'given': 'Tony', 'family': 'Belpaeme', 'sequence': 'additional', 'affiliation': []}]</t>
+  </si>
+  <si>
+    <t>['X6PKYLT6', 'A6K6NJA8', 'EX8YK5GV']</t>
+  </si>
+  <si>
     <t>10.3745/jips.2008.4.4.159</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.3745/jips.2008.4.4.159</t>
+  </si>
+  <si>
+    <t>Journal of Information Processing Systems</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2008, 12, 31]]}</t>
+  </si>
+  <si>
+    <t>Korea Information Processing Society</t>
+  </si>
+  <si>
+    <t>[{'given': 'Jeong-Hye', 'family': 'Han', 'sequence': 'first', 'affiliation': []}, {'given': 'Mi-Heon', 'family': 'Jo', 'sequence': 'additional', 'affiliation': []}, {'given': 'Vicki', 'family': 'Jones', 'sequence': 'additional', 'affiliation': []}, {'given': 'Jun-H.', 'family': 'Jo', 'sequence': 'additional', 'affiliation': []}]</t>
+  </si>
+  <si>
+    <t>['X6PKYLT6', '3Q8HDBSD', 'EX8YK5GV']</t>
+  </si>
+  <si>
     <t>10.1016/j.compedu.2013.07.043</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.1016/j.compedu.2013.07.043</t>
+  </si>
+  <si>
+    <t>Computers &amp; Education</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2014, 1]]}</t>
+  </si>
+  <si>
+    <t>Elsevier BV</t>
+  </si>
+  <si>
+    <t>[{'given': 'Marina', 'family': 'Fridin', 'sequence': 'first', 'affiliation': []}]</t>
+  </si>
+  <si>
     <t>10.1145/2207676.2207679</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.1145/2207676.2207679</t>
+  </si>
+  <si>
+    <t>Proceedings of the SIGCHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2012]]}</t>
+  </si>
+  <si>
+    <t>[{'given': 'Daniel', 'family': 'Szafir', 'sequence': 'first', 'affiliation': []}, {'given': 'Bilge', 'family': 'Mutlu', 'sequence': 'additional', 'affiliation': []}]</t>
+  </si>
+  <si>
+    <t>['X6PKYLT6', 'RIDTB4NU', 'EX8YK5GV']</t>
+  </si>
+  <si>
     <t>10.1145/1753326.1753567</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.1145/1753326.1753567</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2010]]}</t>
+  </si>
+  <si>
+    <t>[{'given': 'Martin', 'family': 'Saerbeck', 'sequence': 'first', 'affiliation': []}, {'given': 'Tom', 'family': 'Schut', 'sequence': 'additional', 'affiliation': []}, {'given': 'Christoph', 'family': 'Bartneck', 'sequence': 'additional', 'affiliation': []}, {'given': 'Maddy D.', 'family': 'Janse', 'sequence': 'additional', 'affiliation': []}]</t>
+  </si>
+  <si>
+    <t>['X6PKYLT6', 'XUWSESUJ', 'EX8YK5GV']</t>
+  </si>
+  <si>
     <t>10.5898/jhri.2.2.fasola</t>
   </si>
   <si>
+    <t>http://dx.doi.org/10.5898/jhri.2.2.fasola</t>
+  </si>
+  <si>
+    <t>Journal of Human-Robot Interaction</t>
+  </si>
+  <si>
+    <t>{'date-parts': [[2013, 6, 18]]}</t>
+  </si>
+  <si>
+    <t>[{'given': 'Juan', 'family': 'Fasola', 'sequence': 'first', 'affiliation': []}, {'given': 'Maja', 'family': 'Mataric', 'sequence': 'additional', 'affiliation': []}]</t>
+  </si>
+  <si>
+    <t>['X6PKYLT6', 'Z5XRHFUL', 'EX8YK5GV']</t>
+  </si>
+  <si>
     <t>10.5898/jhri.1.1.tanaka</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1007/s12369-014-0227-1</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1007/s10648-010-9123-x</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1145/2559636.2559671</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1145/2696454.2696457</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.3745/jips.2008.4.4.159</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1016/j.compedu.2013.07.043</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1145/2207676.2207679</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1145/1753326.1753567</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.5898/jhri.2.2.fasola</t>
-  </si>
-  <si>
     <t>http://dx.doi.org/10.5898/jhri.1.1.tanaka</t>
   </si>
   <si>
-    <t>Proceedings of the 2014 ACM/IEEE international conference on Human-robot interaction</t>
-  </si>
-  <si>
-    <t>2015 10th ACM/IEEE International Conference on Human-Robot Interaction (HRI)</t>
-  </si>
-  <si>
-    <t>Proceedings of the SIGCHI Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t>International Journal of Social Robotics</t>
-  </si>
-  <si>
-    <t>Educational Psychology Review</t>
-  </si>
-  <si>
-    <t>Journal of Information Processing Systems</t>
-  </si>
-  <si>
-    <t>Computers &amp; Education</t>
-  </si>
-  <si>
-    <t>Journal of Human-Robot Interaction</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2014, 3, 23]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2010, 2, 24]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2013, 6, 18]]}</t>
-  </si>
-  <si>
     <t>{'date-parts': [[2012, 8, 1]]}</t>
   </si>
   <si>
-    <t>{'date-parts': [[2014, 8]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2010, 3]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2014]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2015]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2008, 12, 31]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2014, 1]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2012]]}</t>
-  </si>
-  <si>
-    <t>{'date-parts': [[2010]]}</t>
-  </si>
-  <si>
-    <t>Springer Science and Business Media LLC</t>
-  </si>
-  <si>
-    <t>ACM Press</t>
-  </si>
-  <si>
-    <t>Korea Information Processing Society</t>
-  </si>
-  <si>
-    <t>Elsevier BV</t>
-  </si>
-  <si>
-    <t>New York, New York, USA</t>
-  </si>
-  <si>
-    <t>[{'issue': '2', 'key': '227_CR1', 'first-page': '33', 'volume': '1', 'author': 'T Belpaeme', 'year': '2012', 'unstructured': 'Belpaeme T, Baxter PE, Read R, Wood R, Cuayáhuitl H, Kiefer B, Racioppa S, Kruijff-Korbayová I, Athanasopoulos G, Enescu V et al (2012) Multimodal child-robot interaction: building social bonds. J Hum–Robot Interact 1(2):33–53', 'journal-title': 'J Hum–Robot Interact'}, {'issue': '2', 'key': '227_CR2', 'doi-asserted-by': 'crossref', 'first-page': '327', 'DOI': '10.1145/1067860.1067867', 'volume': '12', 'author': 'T Bickmore', 'year': '2005', 'unstructured': 'Bickmore T, Picard R (2005) Establishing and maintaining long-term human–computer relationships. ACM Trans Comput–Hum Interact 12(2):327', 'journal-title': 'ACM Trans Comput–Hum Interact'}, {'issue': '6', 'key': '227_CR3', 'doi-asserted-by': 'crossref', 'first-page': '648', 'DOI': '10.1080/08839514.2010.492259', 'volume': '24', 'author': 'T Bickmore', 'year': '2010', 'unstructured': 'Bickmore T, Schulman D, Yin L (2010) Maintaining engagement in long-term interventions with relational agents. Appl Artif Intell 24(6):648–666', 'journal-title': 'Appl Artif Intell'}, {'key': '227_CR4', 'unstructured': 'Biocca F (1997) The cyborg’s dilemma: Embodiment in virtual environments. In: Cognitive Technology, 1997’.Humanizing the Information Age’. Proceedings., Second International Conference on, IEEE. pp. 12–26', 'DOI': '10.1109/CT.1997.617676', 'doi-asserted-by': 'crossref'}, {'issue': '1535', 'key': '227_CR5', 'doi-asserted-by': 'crossref', 'first-page': '3527', 'DOI': '10.1098/rstb.2009.0157', 'volume': '364', 'author': 'C Breazeal', 'year': '2009', 'unstructured': 'Breazeal C (2009) Role of expressive behaviour for robots that learn from people. Philos Trans R Soc B 364(1535):3527–3538', 'journal-title': 'Philos Trans R Soc B'}, {'key': '227_CR6', 'unstructured': 'Castellano G, Leite I, Pereira A, Martinho C, Paiva A, McOwan PW (2013) Multimodal affect modeling and recognition for empathic robot companions. Int J Hum Robotics 10(1)', 'DOI': '10.1142/S0219843613500102', 'doi-asserted-by': 'crossref'}, {'issue': '3', 'key': '227_CR7', 'doi-asserted-by': 'crossref', 'first-page': '403', 'DOI': '10.1037/0033-2909.113.3.403', 'volume': '113', 'author': 'S Ceci', 'year': '1993', 'unstructured': 'Ceci S, Bruck M (1993) Suggestibility of the child witness: a historical review and synthesis. Psychol bull 113(3):403', 'journal-title': 'Psychol bull'}, {'issue': '3', 'key': '227_CR8', 'doi-asserted-by': 'crossref', 'first-page': '271', 'DOI': '10.1207/s15327809jls0603_1', 'volume': '6', 'author': 'M Chi', 'year': '1997', 'unstructured': 'Chi M (1997) Quantifying qualitative analyses of verbal data: a practical guide. J Learn Sci 6(3):271–315', 'journal-title': 'J Learn Sci'}, {'key': '227_CR9', 'unstructured': 'Cramer H, Goddijn J, Wielinga B, Evers V (2010) Effects of (in)accurate empathy and situational valence on attitudes towards robots. ACM/IEEE international conference on human–robot interaction, ACM, pp 141–142'}, {'key': '227_CR10', 'unstructured': 'Cutrona C, Suhr J, MacFarlane R (1990) Interpersonal transactions and the psychological sense of support. Personal relationships and social support pp. 30–45'}, {'key': '227_CR11', 'doi-asserted-by': 'crossref', 'first-page': '131', 'DOI': '10.1007/BF00991640', 'volume': '14', 'author': 'N Eisenberg', 'year': '1990', 'unstructured': 'Eisenberg N, Fabes RA (1990) Empathy: conceptualization, measurement, and relation to prosocial behavior. Motiv Emot 14:131–149', 'journal-title': 'Motiv Emot'}, {'issue': '5', 'key': '227_CR12', 'doi-asserted-by': 'crossref', 'first-page': '551', 'DOI': '10.1006/ijhc.1996.0104', 'volume': '46', 'author': 'B Fogg', 'year': '1997', 'unstructured': 'Fogg B, Nass C (1997) Silicon sycophants: the effects of computers that flatter. J Hum–Comput Stud 46(5):551–561', 'journal-title': 'J Hum–Comput Stud'}, {'key': '227_CR13', 'unstructured': 'Gonsior B, Sosnowski S, Mayer C, Blume J, Radig B, Wollherr D, Kuhnlenz K (2011) Improving aspects of empathy and subjective performance for hri through mirroring facial expressions. In: RO-MAN, 2011 IEEE, pp. 350–356. doi: 10.1109/ROMAN.2011.6005294', 'DOI': '10.1109/ROMAN.2011.6005294', 'doi-asserted-by': 'crossref'}, {'key': '227_CR14', 'unstructured': 'Gordon A (2011) Assessing social support in children: development and initial validation of the social support questionnaire for children. Ph.D. Thesis, University of Houston'}, {'issue': '14', 'key': '227_CR15', 'doi-asserted-by': 'crossref', 'first-page': '1909', 'DOI': '10.1163/016918609X12518783330289', 'volume': '23', 'author': 'M Heerink', 'year': '2009', 'unstructured': 'Heerink M, Kröse BJA, Evers V, Wielinga BJ (2009) Influence of social presence on acceptance of an assistive social robot and screen agent by elderly users. Adv Robotics 23(14):1909–1923', 'journal-title': 'Adv Robotics'}, {'issue': '2', 'key': '227_CR16', 'doi-asserted-by': 'crossref', 'first-page': '262', 'DOI': '10.1162/pres.1992.1.2.262', 'volume': '1', 'author': 'C Heeter', 'year': '1992', 'unstructured': 'Heeter C (1992) Being there: the subjective experience of presence. Presence 1(2):262–271', 'journal-title': 'Presence'}, {'key': '227_CR17', 'author': 'M Hoffman', 'year': '2001', 'unstructured': 'Hoffman M (2001) Empathy and moral development: Implications for caring and justice. Cambridge University Press, Cambridge', 'volume-title': 'Empathy and moral development: Implications for caring and justice'}, {'issue': '3', 'key': '227_CR18', 'doi-asserted-by': 'crossref', 'first-page': '405', 'DOI': '10.1075/is.7.3.13kah', 'volume': '7', 'author': 'PH Kahn Jr', 'year': '2006', 'unstructured': 'Kahn PH Jr, Friedman B, Perez-Granados DR, Freier NG (2006) Robotic pets in the lives of preschool children. Interact Stud 7(3):405–436', 'journal-title': 'Interact Stud'}, {'issue': '1', 'key': '227_CR19', 'doi-asserted-by': 'crossref', 'first-page': '61', 'DOI': '10.1207/s15327051hci1901&amp;2_4', 'volume': '19', 'author': 'T Kanda', 'year': '2004', 'unstructured': 'Kanda T, Hirano T, Eaton D, Ishiguro H (2004) Interactive robots as social partners and peer tutors for children: a field trial. Hum–Comput Interact 19(1):61–84', 'journal-title': 'Hum–Comput Interact'}, {'issue': '5', 'key': '227_CR20', 'doi-asserted-by': 'crossref', 'first-page': '962', 'DOI': '10.1109/TRO.2007.904904', 'volume': '23', 'author': 'T Kanda', 'year': '2007', 'unstructured': 'Kanda T, Sato R, Saiwaki N, Ishiguro H (2007) A 2-month field trial in an elementary school for long-term human–robot interaction. IEEE Trans Robotics 23(5):962–971', 'journal-title': 'IEEE Trans Robotics'}, {'key': '227_CR21', 'doi-asserted-by': 'crossref', 'first-page': '3', 'DOI': '10.1007/s12369-008-0009-8', 'volume': '1', 'author': 'H Kozima', 'year': '2009', 'unstructured': 'Kozima H, Michalowski M, Nakagawa C (2009) A playful robot for research, therapy, and entertainment. Int J Soc Robot 1:3–18', 'journal-title': 'Int J Soc Robot'}, {'issue': '1', 'key': '227_CR22', 'doi-asserted-by': 'crossref', 'first-page': '31', 'DOI': '10.1207/S1532785XMEP0701_2', 'volume': '7', 'author': 'K Lee', 'year': '2005', 'unstructured': 'Lee K, Nass C (2005) Social-psychological origins of feelings of presence: creating social presence with machine-generated voices. Media Psychol 7(1):31–45', 'journal-title': 'Media Psychol'}, {'key': '227_CR23', 'unstructured': 'Leite I, Castellano G, Pereira A, Martinho C, Paiva A (2012) Modelling empathic behaviour in a robotic game companion for children: an ethnographic study in real-world settings. In: Proceedings of the seventh annual ACM/IEEE international conference on human–robot interaction, HRI ’12, pp. 367–374. ACM, New York, NY, USA. doi: 10.1145/2157689.2157811 . http://doi.acm.org/10.1145/2157689.2157811', 'DOI': '10.1145/2157689.2157811', 'doi-asserted-by': 'crossref'}, {'key': '227_CR24', 'unstructured': 'Leite I, Martinho C, Paiva A (2013) Social robots for long-term interaction: a survey. Int J Social Robotics 5(2):291–308. doi: 10.1007/s12369-013-0178-y . http://dx.doi.org/10.1007/s12369-013-0178-y', 'DOI': '10.1007/s12369-013-0178-y', 'doi-asserted-by': 'crossref'}, {'key': '227_CR25', 'unstructured': 'Leite I, Martinho C, Pereira A, Paiva A (2009) As time goes by: long-term evaluation of social presence in robotic companions. In: Robot and human interactive communication, 2009. RO-MAN 2009, IEEE. pp. 669–674', 'DOI': '10.1109/ROMAN.2009.5326256', 'doi-asserted-by': 'crossref'}, {'key': '227_CR26', 'unstructured': 'Leite I, Martinho C, Pereira A, Paiva A (2009) As time goes by: Long-term evaluation of social presence in robotic companions. In: Robot and human interactive communication, 2009. RO-MAN 2009. The 18th IEEE international symposium on, pp. 669–674. doi: 10.1109/ROMAN.2009.5326256', 'DOI': '10.1109/ROMAN.2009.5326256', 'doi-asserted-by': 'crossref'}, {'key': '227_CR27', 'unstructured': 'Leite I, Pereira A, Castellano G, Mascarenhas S, Martinho C, Paiva A (2011) Modelling empathy in social robotic companions. In: L. Ardissono, T. Kuflik (eds.) UMAP Workshops, Lecture Notes in Computer Science, Springer, vol. 7138, pp. 135–147'}, {'key': '227_CR28', 'unstructured': 'Leite I, Pereira A, Martinho C, Paiva A (2008) Are emotional robots more fun to play with? Robot Hum Interact Commun 2008: 77–82', 'DOI': '10.1109/ROMAN.2008.4600646', 'doi-asserted-by': 'crossref'}, {'issue': '3', 'key': '227_CR29', 'doi-asserted-by': 'crossref', 'first-page': '250', 'DOI': '10.1016/j.ijhcs.2012.09.005', 'volume': '71', 'author': 'I Leite', 'year': '2013', 'unstructured': 'Leite I, Pereira A, Mascarenhas S, Martinho C, Prada R, Paiva A (2013) The influence of empathy in humanrobot relations. Int J Hum–Comput Stud 71(3):250–260. doi: 10.1016/j.ijhcs.2012.09.005', 'journal-title': 'Int J Hum–Comput Stud'}, {'key': '227_CR30', 'unstructured': 'Martinho C, Paiva A (2006) Using anticipation to create believable behaviour. In: Proceedings of the 21st national conference on Artificial intelligence - Volume 1, pp. 175–180. AAAI Press'}, {'issue': '1', 'key': '227_CR31', 'doi-asserted-by': 'crossref', 'first-page': '130', 'DOI': '10.1037/h0087080', 'volume': '31', 'author': 'MJ Mendelson', 'year': '1999', 'unstructured': 'Mendelson MJ, Aboud FE (1999) Measuring friendship quality in late adolescents and young adults: Mcgill friendship questionnaires. Canad J Behav Sci 31(1):130–132. doi: 10.1037/h0087080', 'journal-title': 'Canad J Behav Sci'}, {'key': '227_CR32', 'unstructured': 'Read JC, MacFarlane S (2006) Using the fun toolkit and other survey methods to gather opinions in child computer interaction. In: Proceedings of the 2006 conference on Interaction design and children, IDC ’06, pp. 81–88. ACM, New York, NY, USA. doi: 10.1145/1139073.1139096', 'DOI': '10.1145/1139073.1139096', 'doi-asserted-by': 'crossref'}, {'issue': '1–2', 'key': '227_CR33', 'doi-asserted-by': 'crossref', 'first-page': '99', 'DOI': '10.1007/s12193-009-0028-2', 'volume': '3', 'author': 'LD Riek', 'year': '2010', 'unstructured': 'Riek LD, Paul PC, Robinson P (2010) When my robot smiles at me: enabling human–robot rapport via real-time head gesture mimicry. J Multimodal User Interfaces 3(1–2):99–108', 'journal-title': 'J Multimodal User Interfaces'}, {'key': '227_CR34', 'unstructured': 'Saerbeck M, Schut T, Bartneck C, Janse M (2010) Expressive robots in education: varying the degree of social supportive behavior of a robotic tutor. In: Proceedings of CHI 2010, ACM. pp. 1613–1622', 'DOI': '10.1145/1753326.1753567', 'doi-asserted-by': 'crossref'}, {'key': '227_CR35', 'unstructured': 'Scherer K (2000) Psychological models of emotion. The neuropsychology of emotion'}, {'key': '227_CR36', 'unstructured': 'Schermerhorn P, Scheutz M, Crowell C (2008), Robot social presence and gender: Do females view robots differently than males? In: Proceedings of the 3rd ACM/IEEE international conference on human–robot, interaction, pp. 263–270. ACM', 'DOI': '10.1145/1349822.1349857', 'doi-asserted-by': 'crossref'}, {'issue': '5', 'key': '227_CR37', 'doi-asserted-by': 'crossref', 'first-page': '843', 'DOI': '10.1016/S0191-8869(00)00077-5', 'volume': '30', 'author': 'MH Scullin', 'year': '2001', 'unstructured': 'Scullin MH, Ceci SJ (2001) A suggestibility scale for children. Pers Individ Differ 30(5):843–856. doi: 10.1016/S0191-8869(00)00077-5', 'journal-title': 'Pers Individ Differ'}, {'key': '227_CR38', 'unstructured': 'Sidner C, Kidd C, Lee C, Lesh N (2004) Where to look: a study of human–robot engagement. In: Proceedings of the 9th international conference on Intelligent user interfaces, pp. 78–84. ACM', 'DOI': '10.1145/964442.964458', 'doi-asserted-by': 'crossref'}, {'issue': '46', 'key': '227_CR39', 'doi-asserted-by': 'crossref', 'first-page': '17954', 'DOI': '10.1073/pnas.0707769104', 'volume': '104', 'author': 'F Tanaka', 'year': '2007', 'unstructured': 'Tanaka F, Cicourel A, Movellan J (2007) Socialization between toddlers and robots at an early childhood education center. Proc Natl Acad Sci 104(46):17954', 'journal-title': 'Proc Natl Acad Sci'}, {'issue': '1', 'key': '227_CR40', 'doi-asserted-by': 'crossref', 'first-page': '176', 'DOI': '10.1037/0893-3200.22.1.176', 'volume': '22', 'author': 'J Vigil', 'year': '2008', 'unstructured': 'Vigil J, Geary D (2008) A preliminary investigation of family coping styles and psychological well-being among adolescent survivors of hurricane katrina. J Fam Psychol 22(1):176', 'journal-title': 'J Fam Psychol'}, {'key': '227_CR41', 'unstructured': 'Wada K, Shibata T, Saito T, Sakamoto K, Tanie K (2005) Psychological and social effects of one year robot assisted activity on elderly people at a health service facility for the aged. In: Robotics and Automation, 2005. ICRA 2005. Proceedings of the 2005 IEEE International Conference on, pp. 2785–2790. IEEE'}, {'key': '227_CR42', 'author': 'S Wellek', 'year': '2003', 'unstructured': 'Wellek S (2003) Testing statistical hypotheses of equivalence. CRC Press, Boca Raton', 'volume-title': 'Testing statistical hypotheses of equivalence'}]</t>
-  </si>
-  <si>
-    <t>[{'key': '9123_CR1', 'unstructured': 'Alibali, M. W., &amp; Nathan, M. J. (2007). Teachers’ gestures as a means of scaffolding students’ understanding: Evidence from an early algebra lesson. In R. Goldman, R. Pea, B. Barron, &amp; S. Derry (Eds.), Video Research in the Learning Sciences (pp. 349–365). Mah Wah, NJ: Erlbaum.'}, {'key': '9123_CR2', 'first-page': '543', 'volume': '3', 'author': 'JF Andersen', 'year': '1979', 'unstructured': 'Andersen, J. F. (1979). Teacher immediacy as a predictor of teaching effectiveness. Communication Yearbook, 3, 543–559.', 'journal-title': 'Communication Yearbook'}, {'key': '9123_CR3', 'doi-asserted-by': 'crossref', 'first-page': '416', 'DOI': '10.1037/0022-0663.94.2.416', 'volume': '94', 'author': 'RK Atkinson', 'year': '2002', 'unstructured': 'Atkinson, R. K. (2002). Optimizing learning from examples using animated pedagogical agents. Journal of Educational Psychology, 94, 416–427.', 'journal-title': 'Journal of Educational Psychology'}, {'key': '9123_CR4', 'doi-asserted-by': 'crossref', 'first-page': '102', 'DOI': '10.1080/10508400701793141', 'volume': '17', 'author': 'JN Bailenson', 'year': '2008', 'unstructured': 'Bailenson, J. N., Yee, N., Blascovich, J., Beall, A. C., Lundblad, N., &amp; Jin, M. (2008). The use of immersive virtual reality in the learning sciences: Digital transformations of teachers, students, and social context. The Journal of the Learning Sciences, 17, 102–141.', 'journal-title': 'The Journal of the Learning Sciences'}, {'key': '9123_CR5', 'doi-asserted-by': 'crossref', 'first-page': '354', 'DOI': '10.1080/15213260802285214', 'volume': '11', 'author': 'JN Bailenson', 'year': '2008', 'unstructured': 'Bailenson, J. N., Patel, K., Nielsen, A., Bajcsy, R., Jung, S., &amp; Kurillo, G. (2008). The effect of interactivity on learning physical actions in virtual reality. Media Psychology, 11, 354–376.', 'journal-title': 'Media Psychology'}, {'key': '9123_CR6', 'author': 'A Bandura', 'year': '1977', 'unstructured': 'Bandura, A. (1977). Social learning theory. Englewood Cliffs: Prentice Hall.', 'volume-title': 'Social learning theory'}, {'key': '9123_CR7', 'author': 'JA Bargh', 'first-page': '1', 'year': '1994', 'unstructured': 'Bargh, J. A. (1994). The four horsemen of automaticity: Awareness, intention, efficiency, and control in social cognition. In R. S. Wyer &amp; T. K. Scrull (Eds.), Handbook of social cognition: Vol. 1, Basic processes (pp. 1–40). Hillsdale: LEA.', 'volume-title': 'Handbook of social cognition: Vol. 1, Basic processes'}, {'issue': '4', 'key': '9123_CR8', 'first-page': '403', 'volume': '12', 'author': 'AL Baylor', 'year': '2001', 'unstructured': 'Baylor, A. L. (2001). Permutations of control: Cognitive considerations for agent-based learning environments. Journal of Interactive Learning Research, 12(4), 403–425.', 'journal-title': 'Journal of Interactive Learning Research'}, {'key': '9123_CR9', 'unstructured': 'Baylor, A.L. &amp; Ebbers, S. (2003a). Evidence that Multiple Agents Facilitate Greater Learning. Paper presented at the International Artificial Intelligence in Education (AI-ED), Sydney, Australia.'}, {'key': '9123_CR10', 'author': 'AL Baylor', 'year': '2003', 'unstructured': 'Baylor, A. L., &amp; Ebbers, S. (2003b). The pedagogical agent split-persona effect: When two agents are better than one. Honolulu, Hawaii: Paper presented at ED-MEDIA.', 'volume-title': 'The pedagogical agent split-persona effect: When two agents are better than one'}, {'issue': '4', 'key': '9123_CR11', 'doi-asserted-by': 'crossref', 'first-page': '373', 'DOI': '10.2190/V0WQ-NWGN-JB54-FAT4', 'volume': '28', 'author': 'AL Baylor', 'year': '2003', 'unstructured': 'Baylor, A. L., &amp; Ryu, J. (2003). Does the presence of image and animation enhance pedagogical agent persona? Journal of Educational Computing Research, 28(4), 373–395.', 'journal-title': 'Journal of Educational Computing Research'}, {'key': '9123_CR12', 'author': 'A Baylor', 'first-page': '208', 'year': '2008', 'unstructured': 'Baylor, A., &amp; Kim, S. (2008). The effects of agents’ nonverbal communication on procedural and attitudinal learning outcomes. In H. Prendinger, J. Lester, &amp; M. Ishizuka (Eds.), Intelligent virtual agents 2008, LNAI 5208 (pp. 208–214). Berlin: Springer.', 'volume-title': 'Intelligent virtual agents 2008, LNAI 5208'}, {'key': '9123_CR13', 'author': 'G Bente', 'year': '2009', 'unstructured': 'Bente, G., &amp; Breuer, J. (2009). Making the Implicit Explicit: Embedded Measurement in Serious Games. In U. Ritterfeld, M. J. Cody, &amp; P. Vorderer (Eds.), The social science of serious games: Theories and applications. Philadelphia, PA: Routledge/LEA.', 'volume-title': 'The social science of serious games: Theories and applications'}, {'issue': '3', 'key': '9123_CR14', 'doi-asserted-by': 'crossref', 'first-page': '151', 'DOI': '10.1023/A:1010690525717', 'volume': '25', 'author': 'G Bente', 'year': '2001', 'unstructured': 'Bente, G., Krämer, N. C., Petersen, A., &amp; de Ruiter, J. P. (2001). Computer animated movement and person perception. Methodological advances in nonverbal behavior research. Journal of Nonverbal Behavior, 25(3), 151–166.', 'journal-title': 'Journal of Nonverbal Behavior'}, {'key': '9123_CR15', 'author': 'G Bente', 'first-page': '131', 'year': '2008', 'unstructured': 'Bente, G., Krämer, N. C., &amp; Eschenburg, F. (2008). Is There Anybody Out There? Analyzing the Effects of Embodiment and Nonverbal Behavior in Avatar-Mediated Communication. In E. Konijn, S. Utz, M. Tanis, &amp; S. Barnes (Eds.), Mediated interpersonal communication (pp. 131–157). New York: Routledge.', 'volume-title': 'Mediated interpersonal communication'}, {'issue': '2', 'key': '9123_CR16', 'doi-asserted-by': 'crossref', 'first-page': '287', 'DOI': '10.1111/j.1468-2958.2008.00322.x', 'volume': '34', 'author': 'G Bente', 'year': '2008', 'unstructured': 'Bente, G., Rüggenberg, S., Krämer, N. C., &amp; Eschenburg, F. (2008). Avatar-assisted net-working. Increasing social presence and interpersonal trust in net-based collaborations. Human Communication Research, 34(2), 287–318.', 'journal-title': 'Human Communication Research'}, {'key': '9123_CR17', 'author': 'G Biswas', 'first-page': '71', 'year': '2001', 'unstructured': 'Biswas, G., Schwartz, D., Bransford, J., &amp; Teachable Agents Group at Vanderbilt (TAG-V). (2001). Technology support for complex problem solving: From SAD environments to AI. In K. D. Forbus &amp; P. J. Feltovich (Eds.), Smart machines in education (pp. 71–98). Menlo Park, CA: AAAI.', 'volume-title': 'Smart machines in education'}, {'key': '9123_CR18', 'doi-asserted-by': 'crossref', 'first-page': '103', 'DOI': '10.1207/S15327965PLI1302_01', 'volume': '13', 'author': 'J Blascovich', 'year': '2002', 'unstructured': 'Blascovich, J., Loomis, J., Beall, A. C., Swinth, K. R., Hoyt, C. L., &amp; Bailenson, J. N. (2002). Immersive virtual environment technology as a methodological tool for social psychology. Psychological Inquiry, 13, 103–124.', 'journal-title': 'Psychological Inquiry'}, {'issue': '5', 'key': '9123_CR19', 'doi-asserted-by': 'crossref', 'first-page': '683', 'DOI': '10.1016/j.jesp.2003.10.007', 'volume': '40', 'author': 'J Blascovich', 'year': '2004', 'unstructured': 'Blascovich, J., Seery, M. D., Mugridge, C. A., Norris, R. K., &amp; Weisbuch, M. (2004). Predicting athletic performance from cardiovascular indexes of challenge and threat. Journal of Experimental Social Psychology, 40(5), 683–688.', 'journal-title': 'Journal of Experimental Social Psychology'}, {'issue': '6', 'key': '9123_CR20', 'doi-asserted-by': 'crossref', 'first-page': '962', 'DOI': '10.1037/0022-3514.63.6.962', 'volume': '63', 'author': 'R Buck', 'year': '1992', 'unstructured': 'Buck, R., Losow, J. I., Murphy, M. M., &amp; Constanzo, P. (1992). Social facilitation and inhibition of emotional expression and communication. Journal of Personality and Social Psychology, 63(6), 962–968.', 'journal-title': 'Journal of Personality and Social Psychology'}, {'issue': '12', 'key': '9123_CR21', 'doi-asserted-by': 'crossref', 'first-page': '50', 'DOI': '10.1145/355112.355123', 'volume': '43', 'author': 'J Cassell', 'year': '2000', 'unstructured': 'Cassell, J., &amp; Bickmore, T. (2000). External manifestations of trustworthiness in the interface. Communications of the ACM, 43(12), 50–56.', 'journal-title': 'Communications of the ACM'}, {'key': '9123_CR22', 'unstructured': "Cassell, J., Bickmore, T., Billinghurst, M., Campbell, L., Chang, K., Vilhjálmsson, H. &amp; Yan, H. (1999). Embodiment in conversational interfaces: Rea. CHI'99 Conference Proceedings (pp. 520-527). New York: Association for Computing Machinery."}, {'key': '9123_CR23', 'doi-asserted-by': 'crossref', 'first-page': '163', 'DOI': '10.1080/08351819109389361', 'volume': '25', 'author': 'N Chovil', 'year': '1991', 'unstructured': 'Chovil, N. (1991). Discourse oriented facial displays in conversation. Research on Language and Social Interaction, 25, 163–194.', 'journal-title': 'Research on Language and Social Interaction'}, {'issue': '3', 'key': '9123_CR24', 'first-page': '267', 'volume': '11', 'author': 'G Clarebout', 'year': '2002', 'unstructured': 'Clarebout, G., Elen, J., Johnson, W. L., &amp; Shaw, E. (2002). Animated pedagogical agents. An opportunity to be grasped? Journal of Educational Multimedia and Hypermedia, 11(3), 267–286.', 'journal-title': 'Journal of Educational Multimedia and Hypermedia'}, {'key': '9123_CR25', 'author': 'HH Clark', 'year': '1996', 'unstructured': 'Clark, H. H. (1996). Using language. Cambridge: Cambridge University Press.', 'volume-title': 'Using language', 'DOI': '10.1017/CBO9780511620539', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR26', 'first-page': '242', 'volume': '11', 'author': 'S Craig', 'year': '2000', 'unstructured': 'Craig, S., Gholson, B., Ventura, M., Graesser, A. C., &amp; the TRG. (2000). Overhearing dialogues and monologues in a virtual tutoring session: Effects on questioning and vicarious learning. International Journal of Artificial Intelligence in Education, 11, 242–253.', 'journal-title': 'International Journal of Artificial Intelligence in Education'}, {'key': '9123_CR27', 'doi-asserted-by': 'crossref', 'first-page': '428', 'DOI': '10.1037/0022-0663.94.2.428', 'volume': '94', 'author': 'SD Craig', 'year': '2002', 'unstructured': 'Craig, S. D., Gholson, B., &amp; Driscoll, D. (2002). Animated pedagogical agents in multimedia educational environments: Effects of agent properties, picture features, and redundancy. Journal of Educational Psychology, 94, 428–434.', 'journal-title': 'Journal of Educational Psychology'}, {'key': '9123_CR28', 'doi-asserted-by': 'crossref', 'first-page': '241', 'DOI': '10.1080/1358165042000283101', 'volume': '29', 'author': 'SD Craig', 'year': '2004', 'unstructured': 'Craig, S. D., Graesser, A. C., Sullins, J., &amp; Gholson, B. (2004). Affect and learning: An exploratory look into the role of affect in learning. Journal of Educational Media, 29, 241–250.', 'journal-title': 'Journal of Educational Media'}, {'key': '9123_CR29', 'doi-asserted-by': 'crossref', 'first-page': '777', 'DOI': '10.1080/02699930701516759', 'volume': '22', 'author': 'S Craig', 'year': '2007', 'unstructured': "Craig, S., D'Mello, S., Witherspoon, A., &amp; Graesser, A. (2007). Emote-aloud during learning with AutoTutor: Applying the facial action coding system to cognitive–affective states during learning. Cognition and Emotion, 22, 777–788.", 'journal-title': 'Cognition and Emotion'}, {'key': '9123_CR30', 'author': 'EL Deci', 'year': '1985', 'unstructured': 'Deci, E. L., &amp; Ryan, R. M. (1985). Intrinsic motivation and self-determination in human behavior. New York: Plenum.', 'volume-title': 'Intrinsic motivation and self-determination in human behavior', 'DOI': '10.1007/978-1-4899-2271-7', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR31', 'doi-asserted-by': 'crossref', 'first-page': '1', 'DOI': '10.1006/ijhc.1999.0325', 'volume': '52', 'author': 'DM Dehn', 'year': '2000', 'unstructured': 'Dehn, D. M., &amp; van Mulken, S. (2000). The impact of animated interface agents: a review of empirical research. International Journal of Human Computer Studies, 52, 1–22.', 'journal-title': 'International Journal of Human Computer Studies'}, {'key': '9123_CR32', 'unstructured': 'Domagk, S. (2008). Pädagogische Agenten in multimedialen Lernumgebungen. Empirische Studien zum Einfluss der Sympathie auf Motivation und Lernerfolg [Pedagogical agents in multimedia learning environments. Empirical studies on the influence of likability on motivation and learning]. Berlin: Logos.'}, {'key': '9123_CR33', 'unstructured': 'Elliott, C., Rickel, J. &amp; Lester, J. C. (1997). Integrating affective computing into animated tutoring agents. Proceedings of the IJCAI Workshop on Animated Interface Agents: Making Them Intelligent, 113-121.'}, {'key': '9123_CR34', 'author': 'C Elliott', 'first-page': '195', 'year': '1999', 'unstructured': 'Elliott, C., Rickel, J., &amp; Lester, J. (1999). Lifelike Pedagogical Agents and Affective Computing: An Exploratory Synthesis. In M. Wooldridge &amp; M. Veloso (Eds.), Artificial intelligence today. Lecture notes in computer science 1600 (pp. 195–212). Berlin: Springer.', 'volume-title': 'Artificial intelligence today. Lecture notes in computer science 1600'}, {'key': '9123_CR35', 'unstructured': 'Essa, I. A. (1995). Analysis, interpretation and synthesis of facial expressions. PHD-Thesis, MIT.'}, {'issue': '2', 'key': '9123_CR36', 'doi-asserted-by': 'crossref', 'first-page': '171', 'DOI': '10.1016/j.ijpsycho.2004.11.003', 'volume': '56', 'author': 'SH Fairclough', 'year': '2005', 'unstructured': 'Fairclough, S. H., Venables, L., &amp; Tattersall, A. (2005). The influence of task demand and learning on the psychophysiological response. International Journal of Psychophysiology, 56(2), 171–184.', 'journal-title': 'International Journal of Psychophysiology'}, {'key': '9123_CR37', 'author': 'S Frey', 'first-page': '143', 'year': '1983', 'unstructured': 'Frey, S., Hirsbrunner, H.-P., Florin, A., Daw, W., &amp; Crawford, R. (1983). A unified approach to the investigation of nonverbal and verbal behavior in communication research. In W. Doise &amp; S. Moscovici (Eds.), Current issues in European Social Psychology (pp. 143–199). Cambridge: Cambridge University Press.', 'volume-title': 'Current issues in European Social Psychology'}, {'key': '9123_CR38', 'doi-asserted-by': 'crossref', 'first-page': '59', 'DOI': '10.1177/1461445606059555', 'volume': '8', 'author': 'AC Graesser', 'year': '2006', 'unstructured': 'Graesser, A. C. (2006). Views from a cognitive scientist: Cognitive representations underlying discourse are sometimes social. Discourse Studies, 8, 59–66.', 'journal-title': 'Discourse Studies'}, {'key': '9123_CR39', 'doi-asserted-by': 'crossref', 'first-page': '35', 'DOI': '10.1016/S1389-0417(99)00005-4', 'volume': '1', 'author': 'AC Graesser', 'year': '1999', 'unstructured': 'Graesser, A. C., Wiemer-Hastings, K., Wiemer-Hastings, P., Kreuz, R., &amp; the Tutoring Research Group. (1999). AutoTutor: A simulation of a human tutor. Journal of Cognitive Systems Research, 1, 35–51.', 'journal-title': 'Journal of Cognitive Systems Research'}, {'key': '9123_CR40', 'unstructured': 'Graesser, A. C., Person, N., Harter, D., &amp; TRG (2000). Teaching tactics in AutoTutor. Paper presented at the workshop on tutorial dialogue at the Intelligent Tutoring Systems 2000 Conference, Montreal, Canada.'}, {'key': '9123_CR41', 'first-page': '39', 'volume': '22', 'author': 'AC Graesser', 'year': '2001', 'unstructured': 'Graesser, A. C., VanLehn, K., Rose, C., Jordan, P., Harter, D., Person, N., et al. (2001). Intelligent tutoring systems with conversational dialogue. AI Magazine, 22, 39–51.', 'journal-title': 'AI Magazine'}, {'key': '9123_CR42', 'first-page': '19', 'volume': '47', 'author': 'AC Graesser', 'year': '2007', 'unstructured': 'Graesser, A. C., Jackson, G. T., &amp; McDaniel, B. (2007). AutoTutor holds conversations with learners that are responsive to their cognitive and emotional states. Educational Technology, 47, 19–22.', 'journal-title': 'Educational Technology'}, {'key': '9123_CR43', 'first-page': '293', 'volume': '19', 'author': 'AC Graesser', 'year': '2008', 'unstructured': 'Graesser, A. C., D’Mello, S. K., Craig, S. D., Witherspoon, A., Sullins, J., McDaniel, B., et al. (2008). The relationship between affect states and dialogue patterns during interactions with AutoTutor. Journal of Interactive Learning Research, 19, 293–312.', 'journal-title': 'Journal of Interactive Learning Research'}, {'issue': '3', 'key': '9123_CR44', 'doi-asserted-by': 'crossref', 'first-page': '487', 'DOI': '10.1037/0022-3514.77.3.487', 'volume': '77', 'author': 'K Grammer', 'year': '1999', 'unstructured': 'Grammer, K., Honda, M., Jütte, A., &amp; Schmitt, A. (1999). Fuzziness of nonverbal courtship communication unblurred by motion energy detection. Journal of Personality and Social Psychology, 77(3), 487–508.', 'journal-title': 'Journal of Personality and Social Psychology'}, {'key': '9123_CR45', 'first-page': '47', 'volume': '11', 'author': 'WL Johnson', 'year': '2000', 'unstructured': 'Johnson, W. L., Rickel, J. W., &amp; Lester, J. C. (2000). Animated pedagogical agents: Face-to-face interaction in interactive learning environments. The International Journal of Artificial Intelligence in Education, 11, 47–78.', 'journal-title': 'The International Journal of Artificial Intelligence in Education'}, {'issue': '2', 'key': '9123_CR46', 'doi-asserted-by': 'crossref', 'first-page': '60', 'DOI': '10.1026//0044-3409.211.2.60', 'volume': '211', 'author': 'R Jucks', 'year': '2003', 'unstructured': 'Jucks, R., Bromme, R., &amp; Runde, A. (2003). Audience Design von Experten in der netzgestützten Kommunikation: Die Rolle von Heuristiken über das geteilte Vorwissen [Audience design of experts in net-based communication: the role of heuristics on shared prior knowledge]. Zeitschrift für Psychologie [Journal of Psychology], 211(2), 60–74.', 'journal-title': 'Zeitschrift für Psychologie [Journal of Psychology]'}, {'key': '9123_CR47', 'author': 'S Kiesler', 'first-page': '191', 'year': '1997', 'unstructured': 'Kiesler, S., &amp; Sproull, L. (1997). “Social” Human-Computer Interaction. In B. Friedman (Ed.), Human values and the design of computer technology (pp. 191–199). Cambridge: Cambridge University Press.', 'volume-title': 'Human values and the design of computer technology'}, {'key': '9123_CR48', 'author': 'Y Kim', 'year': '2004', 'unstructured': 'Kim, Y. (2004). Pedagogical agents as learning companions: The effects of agent affect and gender on learning, interest, self-efficacy, and agent persona. Tallahassee, FL: Florida State University.', 'volume-title': 'Pedagogical agents as learning companions: The effects of agent affect and gender on learning, interest, self-efficacy, and agent persona'}, {'issue': '6', 'key': '9123_CR49', 'doi-asserted-by': 'crossref', 'first-page': '569', 'DOI': '10.1007/s11423-006-0637-3', 'volume': '54', 'author': 'Y Kim', 'year': '2006', 'unstructured': 'Kim, Y., &amp; Baylor, A. L. (2006). A social–cognitive framework for pedagogical agents as learning companions. Educational Technology Research &amp; Development, 54(6), 569–590.', 'journal-title': 'Educational Technology Research &amp; Development'}, {'key': '9123_CR50', 'doi-asserted-by': 'crossref', 'first-page': '5', 'DOI': '10.1016/0742-051X(85)90026-5', 'volume': '1', 'author': 'KJ Klauer', 'year': '1985', 'unstructured': 'Klauer, K. J. (1985). Framework for a theory of teaching. Teaching and Teacher Education, 1, 5–17.', 'journal-title': 'Teaching and Teacher Education'}, {'key': '9123_CR51', 'first-page': '30', 'volume': '8', 'author': 'KR Koedinger', 'year': '1997', 'unstructured': 'Koedinger, K. R., &amp; Anderson, J. R. (1997). Intelligent tutoring goes to school in the big city. International Journal of Artificial Intelligence in Education, 8, 30–43.', 'journal-title': 'International Journal of Artificial Intelligence in Education'}, {'key': '9123_CR52', 'author': 'S Kopp', 'year': '2005', 'unstructured': 'Kopp, S., Gesellensetter, L., Krämer, N. C., &amp; Wachsmuth, I. (2005). A conversational agent as museum guide – design and evaluation of a real-world application. In R. Aylett et al. (Eds.), IVA 2005, International Working Conference on Intelligent Virtual Agents. Berlin: Springer.', 'volume-title': 'IVA 2005, International Working Conference on Intelligent Virtual Agents'}, {'key': '9123_CR53', 'author': 'NC Krämer', 'year': '2001', 'unstructured': 'Krämer, N. C. (2001). Bewegende Bewegung. Sozio-emotionale Wirkungen nonverbalen Verhaltens und deren experimentelle Untersuchung mittels Computeranimation. [Moving movements. Socio-emotional effects of nonverbal behaviour and its experimental analysis using computer animation]. Lengerich: Pabst.', 'volume-title': 'Bewegende Bewegung. Sozio-emotionale Wirkungen nonverbalen Verhaltens und deren experimentelle Untersuchung mittels Computeranimation. [Moving movements. Socio-emotional effects of nonverbal behaviour and its experimental analysis using computer animation]'}, {'key': '9123_CR54', 'author': 'NC Krämer', 'first-page': '442', 'year': '2005', 'unstructured': 'Krämer, N. C. (2005). Social communicative effects of a virtual program guide. In T. Panayiotopoulos et al. (Eds.), Intelligent virtual agents 2005 (pp. 442–543). Hamburg: Springer.', 'volume-title': 'Intelligent virtual agents 2005', 'DOI': '10.1007/11550617_37', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR55', 'author': 'NC Krämer', 'year': '2008', 'unstructured': 'Krämer, N. C. (2008a). Soziale Wirkungen virtueller Helfer. Gestaltung und Evaluation von Mensch-Computer-Interaktion [Social effects of virtual assistants. Design and evaluation of human-computer interaction]. Stuttgart: Kohlhammer.', 'volume-title': 'Soziale Wirkungen virtueller Helfer. Gestaltung und Evaluation von Mensch-Computer-Interaktion [Social effects of virtual assistants. Design and evaluation of human-computer interaction]'}, {'key': '9123_CR56', 'author': 'NC Krämer', 'first-page': '222', 'year': '2008', 'unstructured': 'Krämer, N. C. (2008b). Theory of Mind as a theoretical prerequisite to model communication with virtual humans. In I. Wachsmuth &amp; G. Knoblich (Eds.), Modeling communication with robots and virtual humans (pp. 222–240). Berlin: Springer.', 'volume-title': 'Modeling communication with robots and virtual humans', 'DOI': '10.1007/978-3-540-79037-2_12', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR57', 'author': 'NC Krämer', 'first-page': '150', 'year': '2008', 'unstructured': 'Krämer, N. C. (2008c). Nonverbal Communication. In J. Blascovich &amp; C. Hartel (Eds.), Human behavior in military contexts (pp. 150–188). Washington: The National Academies Press.', 'volume-title': 'Human behavior in military contexts'}, {'key': '9123_CR58', 'unstructured': 'Krämer, N. C., Bente, G. &amp; Piesk, J. (2003a). The ghost in the machine. The influence of Embodied Conversational Agents on user expectations and user behaviour in a TV/VCR application. In G. Bieber &amp; T. Kirste (eds)., IMC Workshop 2003, Assistance, Mobility, Applications (pp. 121-128). Rostock.'}, {'key': '9123_CR59', 'author': 'NC Krämer', 'first-page': '292', 'year': '2003', 'unstructured': 'Krämer, N. C., Tietz, B., &amp; Bente, G. (2003). Effects of embodied interface agents and their gestural activity. In R. Aylett, D. Ballin, T. Rist, &amp; J. Rickel (Eds.), 4th International Working Conference on Intelligent Virtual Agents (pp. 292–300). Hamburg: Springer.', 'volume-title': '4th International Working Conference on Intelligent Virtual Agents', 'DOI': '10.1007/978-3-540-39396-2_49', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR60', 'author': 'NC Krämer', 'first-page': '238', 'year': '2007', 'unstructured': 'Krämer, N. C., Simons, N., &amp; Kopp, S. (2007). The effects of an embodied agent’s nonverbal behavior on user’s evaluation and behavioural mimicry. In C. Pelachaud et al. (Eds.), Intelligent virtual agents 2007 (pp. 238–251). Berlin: Springer.', 'volume-title': 'Intelligent virtual agents 2007', 'DOI': '10.1007/978-3-540-74997-4_22', 'doi-asserted-by': 'crossref'}, {'key': '9123_CR61', 'author': 'EJ Langer', 'year': '1989', 'unstructured': 'Langer, E. J. (1989). Mindfulness. Reading, MA: Addison-Wesley.', 'volume-title': 'Mindfulness'}, {'key': '9123_CR62', 'author': 'JC Lester', 'first-page': '59', 'year': '1997', 'unstructured': "Lester, J. C., Converse, S. A., Kahler, S. E., Barlow, S. T., Stone, B. A., &amp; Bogal, R. S. (1997). The Persona Effect: Affective Impact of Animated Pedagogical Agents. In S. Pemberton (Ed.), Human factors in computing systems: CHI'97 Conference proceedings (pp. 59–366). New York: ACM.", 'volume-title': "Human factors in computing systems: CHI'97 Conference proceedings"}, {'key': '9123_CR63', 'doi-asserted-by': 'crossref', 'first-page': '383', 'DOI': '10.1080/088395199117324', 'volume': '13', 'author': 'JC Lester', 'year': '1999', 'unstructured': 'Lester, J. C., Voerman, J. L., Towns, S. G., &amp; Callaway, C. B. (1999). Deictic believability: coordinating gesture, locomotion, and speech in lifelike pedagogical agents. Applied Artificial Intelligence, 13, 383–414.', 'journal-title': 'Applied Artificial Intelligence'}, {'key': '9123_CR64', 'author': 'JC Lester', 'first-page': '123', 'year': '2000', 'unstructured': 'Lester, J. C., Towns, S. G., Callaway, C. B., Voerman, J. L., &amp; FitzGerald, P. J. (2000). Deictic and emotive communication in animated pedagogical agents. In J. Cassell, J. Sullivan, S. Prevost, &amp; E. Churchill (Eds.), Embodied conversational agents (pp. 123–154). Boston: MIT Press.', 'volume-title': 'Embodied conversational agents'}, {'key': '9123_CR65', 'author': 'D Leutner', 'first-page': '289', 'year': '2004', 'unstructured': 'Leutner, D. (2004). Instructional-design principles for adaptivity in open learning environments. In N. M. Seel &amp; S. Dijkstra (Eds.), Curriculum, plans and processes of instructional design: international perspectives (pp. 289–307). Mahwah, NJ: Lawrence Erlbaum.', 'volume-title': 'Curriculum, plans and processes of instructional design: international perspectives'}, {'key': '9123_CR66', 'doi-asserted-by': 'crossref', 'first-page': '174', 'DOI': '10.1027/0044-3409.215.3.174', 'volume': '215', 'author': 'D Leutner', 'year': '2007', 'unstructured': 'Leutner, D., Leopold, C., &amp; den Elzen-Rump, V. (2007). Self-regulated learning with a text-highlighting strategy: A training experiment. Zeitschrift für Psychologie/Journal of Psychology, 215, 174–182.', 'journal-title': 'Zeitschrift für Psychologie/Journal of Psychology'}, {'issue': '4', 'key': '9123_CR67', 'doi-asserted-by': 'crossref', 'first-page': '348', 'DOI': '10.1016/j.ijhcs.2006.11.015', 'volume': '65', 'author': 'S McQuiggan', 'year': '2007', 'unstructured': 'McQuiggan, S., &amp; Lester, J. (2007). Modeling and evaluating empathy in embodied companion agents. International Journal of Human Computer Studies, 65(4), 348–360.', 'journal-title': 'International Journal of Human Computer Studies'}, {'key': '9123_CR68', 'unstructured': 'Moreno, R. (2001). Software agents in multimedia: An experimental study of their contributions to students’ learning. Human-Computer Interaction Proceedings (pp. 275-277), Mahwah, NJ: Lawrence Erlbaum Associates.'}, {'key': '9123_CR69', 'unstructured': 'Moreno, R. (2003). The Role of Software Agents in Multimedia Learning Environments: When Do They Help Students Reduce Cognitive Load? Paper presented at the European Association for Research on Learning and Instruction Annual Conference, Padova, Italy.'}, {'issue': '6', 'key': '9123_CR70', 'first-page': '23', 'volume': '44', 'author': 'R Moreno', 'year': '2004', 'unstructured': 'Moreno, R. (2004). Animated pedagogical agents in educational technology. Educational Technology, 44(6), 23–30.', 'journal-title': 'Educational Technology'}, {'key': '9123_CR71', 'doi-asserted-by': 'crossref', 'first-page': '309', 'DOI': '10.1007/s10648-007-9047-2', 'volume': '19', 'author': 'R Moreno', 'year': '2007', 'unstructured': 'Moreno, R., &amp; Mayer, R. (2007). Interactive multimodal learning environments. Special issue on interactive learning environments: contemporary issues and trends. Educational Psychology Review, 19, 309–326.', 'journal-title': 'Educational Psychology Review'}, {'key': '9123_CR72', 'doi-asserted-by': 'crossref', 'first-page': '177', 'DOI': '10.1207/S1532690XCI1902_02', 'volume': '19', 'author': 'R Moreno', 'year': '2001', 'unstructured': 'Moreno, R., Mayer, R. E., Spires, H., &amp; Lester, J. (2001). The case for social agency in computer-based teaching: Do students learn more deeply when they interact with animated pedagogical agents? Cognition and Instruction, 19, 177–213.', 'journal-title': 'Cognition and Instruction'}, {'issue': '1', 'key': '9123_CR73', 'doi-asserted-by': 'crossref', 'first-page': '81', 'DOI': '10.1111/0022-4537.00153', 'volume': '56', 'author': 'C Nass', 'year': '2000', 'unstructured': 'Nass, C., &amp; Moon, Y. (2000). Machines and mindlessness: Social responses to computers. Journal of Social Issues, 56(1), 81–103.', 'journal-title': 'Journal of Social Issues'}, {'key': '9123_CR74', 'author': 'C Nass', 'first-page': '137', 'year': '1997', 'unstructured': 'Nass, C., Moon, Y., Morkes, J., Kim, E.-Y., &amp; Fogg, B. J. (1997). Computers are social actors: A review of current research. In B. Friedman (Ed.), Moral and ethical issues in human–computer interaction (pp. 137–162). Stanford, CA: CSLI.', 'volume-title': 'Moral and ethical issues in human–computer interaction'}, {'key': '9123_CR75', 'author': 'SY Okita', 'year': '2008', 'unstructured': 'Okita, S. Y., Bailenson, J., &amp; Schwartz, D. L. (2008). Mere Belief of Social Action Improves Complex Learning. In S. Barab, K. Hay, &amp; D. Hickey (Eds.), Proceedings of the 8th International Conference for the Learning Sciences. New Jersey: Lawrence Erlbaum.', 'volume-title': 'Proceedings of the 8th International Conference for the Learning Sciences'}, {'key': '9123_CR76', 'doi-asserted-by': 'crossref', 'first-page': '737', 'DOI': '10.1177/001872089303500412', 'volume': '35', 'author': 'F Paas', 'year': '1993', 'unstructured': 'Paas, F., &amp; van Merriënboer, J. (1993). The efficiency of instructional conditions: An approach to combine mental-effort and performance measures. Human Factors, 35, 737–743.', 'journal-title': 'Human Factors'}, {'key': '9123_CR77', 'doi-asserted-by': 'crossref', 'first-page': '1', 'DOI': '10.1207/S15326985EP3801_1', 'volume': '38', 'author': 'F Paas', 'year': '2003', 'unstructured': 'Paas, F., Renkl, A., &amp; Sweller, J. (2003). Cognitive load theory and instructional design: Recent developments. Educational Psychologist, 38, 1–4.', 'journal-title': 'Educational Psychologist'}, {'key': '9123_CR78', 'doi-asserted-by': 'crossref', 'first-page': '123', 'DOI': '10.1016/S0747-5632(98)00035-1', 'volume': '15', 'author': 'S Parise', 'year': '1999', 'unstructured': 'Parise, S., Kiesler, S., Sproull, L., &amp; Waters, K. (1999). Cooperating with life-like interface agents. Computers in Human Behavior, 15, 123–142.', 'journal-title': 'Computers in Human Behavior'}, {'issue': '1–2', 'key': '9123_CR79', 'doi-asserted-by': 'crossref', 'first-page': '185', 'DOI': '10.1016/S1071-5819(03)00017-X', 'volume': '59', 'author': 'T Partala', 'year': '2003', 'unstructured': 'Partala, T., &amp; Surakka, V. (2003). Pupil size variation as an indication of affective processing. International Journal of Human Computer Studies, 59(1–2), 185–198.', 'journal-title': 'International Journal of Human Computer Studies'}, {'key': '9123_CR80', 'author': 'NK Person', 'first-page': '286', 'year': '2001', 'unstructured': 'Person, N. K., Graesser, A. C., Bautista, L., Mathews, E., &amp; TRG. (2001). Evaluating student learning gains in two versions of AutoTutor. In J. D. Moore, C. L. Redfield, &amp; W. L. Johnson (Eds.), Artificial intelligence in education: AI-ED in the wired and wireless future (pp. 286–293). Amsterdam: OIS.', 'volume-title': 'Artificial intelligence in education: AI-ED in the wired and wireless future'}, {'key': '9123_CR81', 'doi-asserted-by': 'crossref', 'first-page': '117', 'DOI': '10.1023/A:1017319110294', 'volume': '4', 'author': 'S Rajan', 'year': '2001', 'unstructured': 'Rajan, S., Craig, S. D., Gholson, B., Person, N. K., Graesser, A. C., &amp; TRG. (2001). AutoTutor: Incorporating backchannel feedback and other human-like conversational behaviors into an intelligent tutoring system. International Journal of Speech Technology, 4, 117–126.', 'journal-title': 'International Journal of Speech Technology'}, {'key': '9123_CR82', 'author': 'B Reeves', 'year': '1996', 'unstructured': 'Reeves, B., &amp; Nass, C. I. (1996). The media equation: How people treat computers, television, and new media like real people and places. New York: Cambridge University Pre</t>
-  </si>
-  <si>
-    <t>[{'key': 'key-10.1145/2696454.2696457-1', 'unstructured': "R. K. Atkinson, R. E. Mayer, and M. M. Merrill. Fostering social agency in multimedia learning: Examining the impact of an animated agent's voice. Contemporary Educational Psychology, 30(1):117--139, 2005."}, {'key': 'key-10.1145/2696454.2696457-2', 'unstructured': "P. Baxter, R. Wood, and T. Belpaeme. A touchscreen-based 'sandtray' to facilitate, mediate and contextualise human-robot social interaction. In Proc. HRI'12, pages 105--106, 2012.", 'DOI': '10.1145/2157689.2157707', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-3', 'unstructured': 'T. Belpaeme, P. Baxter, R. Read, R. Wood, H. Cuayahuitl, B. Kiefer, et al. Multimodal child-robot interaction: Building social bonds. Journal of Human-Robot Interaction, 1(2):33--53, 2012.'}, {'key': 'key-10.1145/2696454.2696457-4', 'unstructured': 'O. A. Blanson Henkemans, B. P. Bierman, J. Janssen, M. A. Neerincx, R. Looije, H. van der Bosch, et al. Using a robot to personalise health education for children with diabetes type 1: A pilot study. Patient Education and Counseling, 92(2):174--181, 2013.'}, {'key': 'key-10.1145/2696454.2696457-5', 'unstructured': 'B. S. Bloom. The 2 sigma problem: The search for methods of group instruction as effective as one-to-one tutoring. Educational researcher, pages 4--16, 1984.', 'DOI': '10.3102/0013189X013006004', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-6', 'unstructured': "J. Han, M. Jo, S. Park, and S. Kim. The educational use of home robots for children. In IEEE RO-MAN'05, pages 378--383, 2005."}, {'key': 'key-10.1145/2696454.2696457-7', 'unstructured': 'T. Kanda, T. Hirano, D. Eaton, and H. Ishiguro. Interactive robots as social partners and peer tutors for children: A field trial. Human-Computer Interaction, 19(1):61--84, 2004.'}, {'key': 'key-10.1145/2696454.2696457-8', 'unstructured': "J. Kennedy, P. Baxter, and T. Belpaeme. Constraining content in mediated unstructured social interactions: Studies in the wild. In Proc. AFFINE'13, at ACII'13, pages 728--733, 2013.", 'DOI': '10.1109/ACII.2013.135', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-9', 'unstructured': "J. Kennedy, P. Baxter, and T. Belpaeme. Children comply with a robot's indirect requests. In Proc. HRI'14, pages 198--199, 2014.", 'DOI': '10.1145/2559636.2559820', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-10', 'unstructured': 'J. Kennedy, P. Baxter, and T. Belpaeme. Comparing robot embodiments in a guided discovery learning interaction with children. International Journal of Social Robotics, accepted.'}, {'key': 'key-10.1145/2696454.2696457-11', 'unstructured': 'H. Kose-Bagci, E. Ferrari, K. Dautenhahn, D. S. Syrdal, and C. L. Nehaniv. Effects of embodiment and gestures on social interaction in drumming games with a humanoid robot. Advanced Robotics, 23(14):1951--1996, 2009.', 'DOI': '10.1163/016918609X12518783330360', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-12', 'unstructured': 'J. R. Landis and G. G. Koch. The measurement of observer agreement for categorical data. Biometrics, 33(1):159--174, 1977.', 'DOI': '10.2307/2529310', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-13', 'unstructured': "D. Leyzberg, S. Spaulding, and B. Scassellati. Personalizing robot tutors to individual learning differences. In Proc. HRI'14, pages 423--430, 2014.", 'DOI': '10.1145/2559636.2559671', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-14', 'unstructured': "D. Leyzberg, S. Spaulding, M. Toneva, and B. Scassellati. The physical presence of a robot tutor increases cognitive learning gains. In Proc. CogSci'12, pages 1882--1887, 2012."}, {'key': 'key-10.1145/2696454.2696457-15', 'unstructured': 'R. E. Mayer, S. Fennell, L. Farmer, and J. Campbell. A personalization effect in multimedia learning: Students learn better when words are in conversational style rather than formal style. Journal of Educational Psychology, 96(2):389, 2004.'}, {'key': 'key-10.1145/2696454.2696457-16', 'unstructured': "L. Moshkina, S. Trickett, and J. G. Trafton. Social engagement in public places: a tale of one robot. In Proc. HRI'14, pages 382--389, 2014.", 'DOI': '10.1145/2559636.2559678', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-17', 'unstructured': "M. E. O'Neill. The genuine sieve of eratosthenes. Journal of Functional Programming, 19(01):95--106, 2009.", 'DOI': '10.1017/S0956796808007004', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-18', 'unstructured': "M. Saerbeck, T. Schut, C. Bartneck, and M. D. Janse. Expressive robots in education: Varying the degree of social supportive behavior of a robotic tutor. In Proc. CHI'10, pages 1613--1622, 2010.", 'DOI': '10.1145/1753326.1753567', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-19', 'unstructured': "P. Schermerhorn, M. Scheutz, and C. R. Crowell. Robot social presence and gender: Do females view robots differently than males? In Proc. HRI'08, pages 263--270, 2008.", 'DOI': '10.1145/1349822.1349857', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-20', 'unstructured': "E. Short, K. Swift-Spong, J. Greczek, A. Ramachandran, A. Litoiu, E. C. Grigore, et al. How to train your dragonbot: Socially assistive robots for teaching children about nutrition through play. In IEEE RO-MAN'14, pages 924--929, 2014.", 'DOI': '10.1109/ROMAN.2014.6926371', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-21', 'unstructured': 'J. Sweller. Cognitive load theory, learning difficulty, and instructional design. Learning and instruction, 4(4):295--312, 1994.', 'DOI': '10.1016/0959-4752(94)90003-5', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-22', 'unstructured': "D. Szafir and B. Mutlu. Pay attention!: Designing adaptive agents that monitor and improve user engagement. In Proc. CHI'12, pages 11--20, 2012.", 'DOI': '10.1145/2207676.2207679', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-23', 'unstructured': 'K. VanLehn. The relative effectiveness of human tutoring, intelligent tutoring systems, and other tutoring systems. Educational Psychologist, 46(4):197--221, 2011.', 'DOI': '10.1080/00461520.2011.611369', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-24', 'unstructured': 'K. VanLehn, S. Siler, C. Murray, T. Yamauchi, and W. B. Baggett. Why do only some events cause learning during human tutoring? Cognition and Instruction, 21(3):209--249, 2003.', 'DOI': '10.1207/S1532690XCI2103_01', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-25', 'unstructured': 'L. S. Vygotsky. Mind in society: The development of higher psychological processes. Harvard university press, 1980.', 'DOI': '10.2307/j.ctvjf9vz4', 'doi-asserted-by': 'crossref'}, {'key': 'key-10.1145/2696454.2696457-26', 'unstructured': 'J. Zaki. Cue integration a common framework for social cognition and physical perception. Perspectives on Psychological Science, 8(3):296--312, 2013.', 'DOI': '10.1177/1745691613475454', 'doi-asserted-by': 'crossref'}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'Iolanda', 'family': 'Leite', 'sequence': 'first', 'affiliation': []}, {'given': 'Ginevra', 'family': 'Castellano', 'sequence': 'additional', 'affiliation': []}, {'given': 'André', 'family': 'Pereira', 'sequence': 'additional', 'affiliation': []}, {'given': 'Carlos', 'family': 'Martinho', 'sequence': 'additional', 'affiliation': []}, {'given': 'Ana', 'family': 'Paiva', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'Nicole C.', 'family': 'Krämer', 'sequence': 'first', 'affiliation': []}, {'given': 'Gary', 'family': 'Bente', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'Daniel', 'family': 'Leyzberg', 'sequence': 'first', 'affiliation': []}, {'given': 'Samuel', 'family': 'Spaulding', 'sequence': 'additional', 'affiliation': []}, {'given': 'Brian', 'family': 'Scassellati', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'James', 'family': 'Kennedy', 'sequence': 'first', 'affiliation': []}, {'given': 'Paul', 'family': 'Baxter', 'sequence': 'additional', 'affiliation': []}, {'given': 'Tony', 'family': 'Belpaeme', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'Jeong-Hye', 'family': 'Han', 'sequence': 'first', 'affiliation': []}, {'given': 'Mi-Heon', 'family': 'Jo', 'sequence': 'additional', 'affiliation': []}, {'given': 'Vicki', 'family': 'Jones', 'sequence': 'additional', 'affiliation': []}, {'given': 'Jun-H.', 'family': 'Jo', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'Marina', 'family': 'Fridin', 'sequence': 'first', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'Daniel', 'family': 'Szafir', 'sequence': 'first', 'affiliation': []}, {'given': 'Bilge', 'family': 'Mutlu', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'Martin', 'family': 'Saerbeck', 'sequence': 'first', 'affiliation': []}, {'given': 'Tom', 'family': 'Schut', 'sequence': 'additional', 'affiliation': []}, {'given': 'Christoph', 'family': 'Bartneck', 'sequence': 'additional', 'affiliation': []}, {'given': 'Maddy D.', 'family': 'Janse', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>[{'given': 'Juan', 'family': 'Fasola', 'sequence': 'first', 'affiliation': []}, {'given': 'Maja', 'family': 'Mataric', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
     <t>[{'given': 'Fumihide', 'family': 'Tanaka', 'sequence': 'first', 'affiliation': []}, {'given': 'Shizuko', 'family': 'Matsuzoe', 'sequence': 'additional', 'affiliation': []}]</t>
-  </si>
-  <si>
-    <t>['X6PKYLT6', 'FCB8Y699', 'EX8YK5GV']</t>
-  </si>
-  <si>
-    <t>['X6PKYLT6', 'XUWSESUJ', 'V6HK5X8G', 'EX8YK5GV']</t>
-  </si>
-  <si>
-    <t>['X6PKYLT6', 'A6K6NJA8', 'EX8YK5GV']</t>
-  </si>
-  <si>
-    <t>['X6PKYLT6', '3Q8HDBSD', 'EX8YK5GV']</t>
-  </si>
-  <si>
-    <t>['X6PKYLT6', 'RIDTB4NU', 'EX8YK5GV']</t>
-  </si>
-  <si>
-    <t>['X6PKYLT6', 'XUWSESUJ', 'EX8YK5GV']</t>
-  </si>
-  <si>
-    <t>['X6PKYLT6', 'Z5XRHFUL', 'EX8YK5GV']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,12 +297,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -326,12 +342,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,15 +695,16 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,324 +748,324 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15" s="4" customFormat="1">
+      <c r="A2" s="3">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4">
+        <v>55</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="3">
+        <v>208</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2">
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4">
         <v>55</v>
       </c>
-      <c r="N2" t="s">
-        <v>72</v>
+      <c r="N3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="M4">
         <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
         <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
       </c>
       <c r="M6">
         <v>68</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
         <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="M7">
         <v>77</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M8">
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
-      </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M9">
         <v>108</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M10">
         <v>122</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M11">
         <v>126</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
